--- a/0819_test.xlsx
+++ b/0819_test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>홍수사상번호</t>
   </si>
@@ -151,22 +151,7 @@
     <t>Unnamed: 47</t>
   </si>
   <si>
-    <t>avg_A_waterfall</t>
-  </si>
-  <si>
-    <t>avg_B_waterfall</t>
-  </si>
-  <si>
-    <t>avg_C_waterfall</t>
-  </si>
-  <si>
-    <t>avg_D_waterfall</t>
-  </si>
-  <si>
-    <t>avg_D_waterlevel</t>
-  </si>
-  <si>
-    <t>avg_E_waterlevel</t>
+    <t>add_D+E_waterlevel</t>
   </si>
 </sst>
 </file>
@@ -528,13 +513,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AZ161"/>
+  <dimension ref="A1:AU161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:52">
+    <row r="1" spans="1:47">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -673,23 +658,8 @@
       <c r="AU1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
     </row>
-    <row r="2" spans="1:52">
+    <row r="2" spans="1:47">
       <c r="A2" s="1">
         <v>2891</v>
       </c>
@@ -826,25 +796,10 @@
         <v>0.0720953326713008</v>
       </c>
       <c r="AU2">
-        <v>0.09542743538767397</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0.002013422818791946</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0.05495207667731629</v>
-      </c>
-      <c r="AZ2">
-        <v>0.07158014078079432</v>
+        <v>0.07848138700972283</v>
       </c>
     </row>
-    <row r="3" spans="1:52">
+    <row r="3" spans="1:47">
       <c r="A3" s="1">
         <v>2892</v>
       </c>
@@ -981,25 +936,10 @@
         <v>0.07189672293942413</v>
       </c>
       <c r="AU3">
-        <v>0.06113320079522863</v>
-      </c>
-      <c r="AV3">
-        <v>0.002780352177942539</v>
-      </c>
-      <c r="AW3">
-        <v>0.02818791946308725</v>
-      </c>
-      <c r="AX3">
-        <v>0.0154539600772698</v>
-      </c>
-      <c r="AY3">
-        <v>0.05495207667731629</v>
-      </c>
-      <c r="AZ3">
-        <v>0.07145546340860011</v>
+        <v>0.07829655095929931</v>
       </c>
     </row>
-    <row r="4" spans="1:52">
+    <row r="4" spans="1:47">
       <c r="A4" s="1">
         <v>2893</v>
       </c>
@@ -1136,25 +1076,10 @@
         <v>0.07169811320754689</v>
       </c>
       <c r="AU4">
-        <v>0.04870775347912525</v>
-      </c>
-      <c r="AV4">
-        <v>0.0139017608897127</v>
-      </c>
-      <c r="AW4">
-        <v>0.03892617449664429</v>
-      </c>
-      <c r="AX4">
-        <v>0.04636188023180941</v>
-      </c>
-      <c r="AY4">
-        <v>0.05431309904153354</v>
-      </c>
-      <c r="AZ4">
-        <v>0.0713307853739832</v>
+        <v>0.07781597722819882</v>
       </c>
     </row>
-    <row r="5" spans="1:52">
+    <row r="5" spans="1:47">
       <c r="A5" s="1">
         <v>2894</v>
       </c>
@@ -1291,25 +1216,10 @@
         <v>0.0714995034756702</v>
       </c>
       <c r="AU5">
-        <v>0.04125248508946323</v>
-      </c>
-      <c r="AV5">
-        <v>0.03058387395736793</v>
-      </c>
-      <c r="AW5">
-        <v>0.05436241610738255</v>
-      </c>
-      <c r="AX5">
-        <v>0.06889890534449453</v>
-      </c>
-      <c r="AY5">
-        <v>0.05431309904153354</v>
-      </c>
-      <c r="AZ5">
-        <v>0.07120610800178956</v>
+        <v>0.07763114117777528</v>
       </c>
     </row>
-    <row r="6" spans="1:52">
+    <row r="6" spans="1:47">
       <c r="A6" s="1">
         <v>2895</v>
       </c>
@@ -1446,25 +1356,10 @@
         <v>0.07130089374379352</v>
       </c>
       <c r="AU6">
-        <v>0.04970178926441352</v>
-      </c>
-      <c r="AV6">
-        <v>0.06950880444856349</v>
-      </c>
-      <c r="AW6">
-        <v>0.0691275167785235</v>
-      </c>
-      <c r="AX6">
-        <v>0.09529942047649712</v>
-      </c>
-      <c r="AY6">
-        <v>0.05431309904153354</v>
-      </c>
-      <c r="AZ6">
-        <v>0.07117803383243473</v>
+        <v>0.07763114117777528</v>
       </c>
     </row>
-    <row r="7" spans="1:52">
+    <row r="7" spans="1:47">
       <c r="A7" s="1">
         <v>2896</v>
       </c>
@@ -1601,25 +1496,10 @@
         <v>0.07110228401191628</v>
       </c>
       <c r="AU7">
-        <v>0.05914512922465209</v>
-      </c>
-      <c r="AV7">
-        <v>0.1334569045412419</v>
-      </c>
-      <c r="AW7">
-        <v>0.08724832214765101</v>
-      </c>
-      <c r="AX7">
-        <v>0.1236316806181584</v>
-      </c>
-      <c r="AY7">
-        <v>0.05623003194888179</v>
-      </c>
-      <c r="AZ7">
-        <v>0.0712051607362184</v>
+        <v>0.07851835421980703</v>
       </c>
     </row>
-    <row r="8" spans="1:52">
+    <row r="8" spans="1:47">
       <c r="A8" s="1">
         <v>2897</v>
       </c>
@@ -1756,25 +1636,10 @@
         <v>0.07090367428003959</v>
       </c>
       <c r="AU8">
-        <v>0.0636182902584493</v>
-      </c>
-      <c r="AV8">
-        <v>0.1612604263206673</v>
-      </c>
-      <c r="AW8">
-        <v>0.09328859060402685</v>
-      </c>
-      <c r="AX8">
-        <v>0.1371538956857695</v>
-      </c>
-      <c r="AY8">
-        <v>0.05623003194888179</v>
-      </c>
-      <c r="AZ8">
-        <v>0.07123228896484911</v>
+        <v>0.07851835421980703</v>
       </c>
     </row>
-    <row r="9" spans="1:52">
+    <row r="9" spans="1:47">
       <c r="A9" s="1">
         <v>2898</v>
       </c>
@@ -1911,25 +1776,10 @@
         <v>0.07070506454816292</v>
       </c>
       <c r="AU9">
-        <v>0.06610337972166999</v>
-      </c>
-      <c r="AV9">
-        <v>0.1668211306765524</v>
-      </c>
-      <c r="AW9">
-        <v>0.09731543624161074</v>
-      </c>
-      <c r="AX9">
-        <v>0.1474565357372827</v>
-      </c>
-      <c r="AY9">
-        <v>0.05686900958466455</v>
-      </c>
-      <c r="AZ9">
-        <v>0.07125941719347982</v>
+        <v>0.07881409190048401</v>
       </c>
     </row>
-    <row r="10" spans="1:52">
+    <row r="10" spans="1:47">
       <c r="A10" s="1">
         <v>2899</v>
       </c>
@@ -2066,25 +1916,10 @@
         <v>0.07070506454816292</v>
       </c>
       <c r="AU10">
-        <v>0.06809145129224652</v>
-      </c>
-      <c r="AV10">
-        <v>0.17516218721038</v>
-      </c>
-      <c r="AW10">
-        <v>0.1013422818791946</v>
-      </c>
-      <c r="AX10">
-        <v>0.1506761107533806</v>
-      </c>
-      <c r="AY10">
-        <v>0.05686900958466455</v>
-      </c>
-      <c r="AZ10">
-        <v>0.07126446419794669</v>
+        <v>0.07881409190048401</v>
       </c>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:47">
       <c r="A11" s="1">
         <v>2900</v>
       </c>
@@ -2221,25 +2056,10 @@
         <v>0.07070506454816292</v>
       </c>
       <c r="AU11">
-        <v>0.06809145129224652</v>
-      </c>
-      <c r="AV11">
-        <v>0.1862835959221501</v>
-      </c>
-      <c r="AW11">
-        <v>0.1087248322147651</v>
-      </c>
-      <c r="AX11">
-        <v>0.1526078557630393</v>
-      </c>
-      <c r="AY11">
-        <v>0.05750798722044728</v>
-      </c>
-      <c r="AZ11">
-        <v>0.07125571027170512</v>
+        <v>0.07929466563158492</v>
       </c>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12" spans="1:47">
       <c r="A12" s="1">
         <v>2901</v>
       </c>
@@ -2376,25 +2196,10 @@
         <v>0.07070506454816292</v>
       </c>
       <c r="AU12">
-        <v>0.0989065606361829</v>
-      </c>
-      <c r="AV12">
-        <v>0.1890639481000927</v>
-      </c>
-      <c r="AW12">
-        <v>0.1536912751677852</v>
-      </c>
-      <c r="AX12">
-        <v>0.1764327108821636</v>
-      </c>
-      <c r="AY12">
-        <v>0.06709265175718854</v>
-      </c>
-      <c r="AZ12">
-        <v>0.07124695700788793</v>
+        <v>0.08391556689216678</v>
       </c>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:47">
       <c r="A13" s="1">
         <v>2902</v>
       </c>
@@ -2531,25 +2336,10 @@
         <v>0.07070506454816292</v>
       </c>
       <c r="AU13">
-        <v>0.1491053677932406</v>
-      </c>
-      <c r="AV13">
-        <v>0.1974050046339203</v>
-      </c>
-      <c r="AW13">
-        <v>0.1724832214765101</v>
-      </c>
-      <c r="AX13">
-        <v>0.1989697359948487</v>
-      </c>
-      <c r="AY13">
-        <v>0.07412140575079873</v>
-      </c>
-      <c r="AZ13">
-        <v>0.0712382037440696</v>
+        <v>0.08735351743003993</v>
       </c>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:47">
       <c r="A14" s="1">
         <v>2903</v>
       </c>
@@ -2686,25 +2476,10 @@
         <v>0.07070506454816292</v>
       </c>
       <c r="AU14">
-        <v>0.1774353876739563</v>
-      </c>
-      <c r="AV14">
-        <v>0.2057460611677479</v>
-      </c>
-      <c r="AW14">
-        <v>0.2020134228187919</v>
-      </c>
-      <c r="AX14">
-        <v>0.2169993560849968</v>
-      </c>
-      <c r="AY14">
-        <v>0.08434504792332269</v>
-      </c>
-      <c r="AZ14">
-        <v>0.07125594675688628</v>
+        <v>0.09227015637129876</v>
       </c>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:47">
       <c r="A15" s="1">
         <v>2904</v>
       </c>
@@ -2841,25 +2616,10 @@
         <v>0.07090367428003959</v>
       </c>
       <c r="AU15">
-        <v>0.1933399602385686</v>
-      </c>
-      <c r="AV15">
-        <v>0.2085264133456904</v>
-      </c>
-      <c r="AW15">
-        <v>0.2241610738255033</v>
-      </c>
-      <c r="AX15">
-        <v>0.2427559562137798</v>
-      </c>
-      <c r="AY15">
-        <v>0.1047923322683706</v>
-      </c>
-      <c r="AZ15">
-        <v>0.07126541013867078</v>
+        <v>0.1017337621529702</v>
       </c>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:47">
       <c r="A16" s="1">
         <v>2905</v>
       </c>
@@ -2996,25 +2756,10 @@
         <v>0.07110228401191628</v>
       </c>
       <c r="AU16">
-        <v>0.2087475149105368</v>
-      </c>
-      <c r="AV16">
-        <v>0.2085264133456904</v>
-      </c>
-      <c r="AW16">
-        <v>0.2583892617449665</v>
-      </c>
-      <c r="AX16">
-        <v>0.2723760463618802</v>
-      </c>
-      <c r="AY16">
-        <v>0.1099041533546326</v>
-      </c>
-      <c r="AZ16">
-        <v>0.07127487352045474</v>
+        <v>0.1040996635983885</v>
       </c>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:47">
       <c r="A17" s="1">
         <v>2906</v>
       </c>
@@ -3151,25 +2896,10 @@
         <v>0.07130089374379352</v>
       </c>
       <c r="AU17">
-        <v>0.2147117296222664</v>
-      </c>
-      <c r="AV17">
-        <v>0.216867469879518</v>
-      </c>
-      <c r="AW17">
-        <v>0.2738255033557047</v>
-      </c>
-      <c r="AX17">
-        <v>0.2897617514488088</v>
-      </c>
-      <c r="AY17">
-        <v>0.1162939297124601</v>
-      </c>
-      <c r="AZ17">
-        <v>0.07130799469427641</v>
+        <v>0.1070570404051607</v>
       </c>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:47">
       <c r="A18" s="1">
         <v>2907</v>
       </c>
@@ -3306,25 +3036,10 @@
         <v>0.0714995034756702</v>
       </c>
       <c r="AU18">
-        <v>0.2176938369781312</v>
-      </c>
-      <c r="AV18">
-        <v>0.2279888785912882</v>
-      </c>
-      <c r="AW18">
-        <v>0.285234899328859</v>
-      </c>
-      <c r="AX18">
-        <v>0.3013522215067611</v>
-      </c>
-      <c r="AY18">
-        <v>0.1214057507987221</v>
-      </c>
-      <c r="AZ18">
-        <v>0.0713411158680981</v>
+        <v>0.1094229418505786</v>
       </c>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:47">
       <c r="A19" s="1">
         <v>2908</v>
       </c>
@@ -3461,25 +3176,10 @@
         <v>0.0714995034756702</v>
       </c>
       <c r="AU19">
-        <v>0.2211729622266402</v>
-      </c>
-      <c r="AV19">
-        <v>0.2391102873030584</v>
-      </c>
-      <c r="AW19">
-        <v>0.2926174496644295</v>
-      </c>
-      <c r="AX19">
-        <v>0.3155183515775918</v>
-      </c>
-      <c r="AY19">
-        <v>0.123961661341853</v>
-      </c>
-      <c r="AZ19">
-        <v>0.07136761280715578</v>
+        <v>0.1106058925732877</v>
       </c>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:47">
       <c r="A20" s="1">
         <v>2909</v>
       </c>
@@ -3616,25 +3316,10 @@
         <v>0.0714995034756702</v>
       </c>
       <c r="AU20">
-        <v>0.2271371769383698</v>
-      </c>
-      <c r="AV20">
-        <v>0.2391102873030584</v>
-      </c>
-      <c r="AW20">
-        <v>0.3013422818791946</v>
-      </c>
-      <c r="AX20">
-        <v>0.3219575016097875</v>
-      </c>
-      <c r="AY20">
-        <v>0.1399361022364217</v>
-      </c>
-      <c r="AZ20">
-        <v>0.07139410974621291</v>
+        <v>0.1179993345902187</v>
       </c>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:47">
       <c r="A21" s="1">
         <v>2910</v>
       </c>
@@ -3771,25 +3456,10 @@
         <v>0.0714995034756702</v>
       </c>
       <c r="AU21">
-        <v>0.2306163021868787</v>
-      </c>
-      <c r="AV21">
-        <v>0.247451343836886</v>
-      </c>
-      <c r="AW21">
-        <v>0.3053691275167785</v>
-      </c>
-      <c r="AX21">
-        <v>0.3258209916291049</v>
-      </c>
-      <c r="AY21">
-        <v>0.154632587859425</v>
-      </c>
-      <c r="AZ21">
-        <v>0.07152596315192661</v>
+        <v>0.1248013012457949</v>
       </c>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:47">
       <c r="A22" s="1">
         <v>2911</v>
       </c>
@@ -3926,25 +3596,10 @@
         <v>0.07169811320754689</v>
       </c>
       <c r="AU22">
-        <v>0.2340954274353877</v>
-      </c>
-      <c r="AV22">
-        <v>0.2530120481927711</v>
-      </c>
-      <c r="AW22">
-        <v>0.3302013422818792</v>
-      </c>
-      <c r="AX22">
-        <v>0.3438506117192531</v>
-      </c>
-      <c r="AY22">
-        <v>0.1648562300319489</v>
-      </c>
-      <c r="AZ22">
-        <v>0.07181120005118562</v>
+        <v>0.1297179401870542</v>
       </c>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:47">
       <c r="A23" s="1">
         <v>2912</v>
       </c>
@@ -4081,25 +3736,10 @@
         <v>0.07189672293942413</v>
       </c>
       <c r="AU23">
-        <v>0.2465208747514911</v>
-      </c>
-      <c r="AV23">
-        <v>0.2557924003707136</v>
-      </c>
-      <c r="AW23">
-        <v>0.3496644295302013</v>
-      </c>
-      <c r="AX23">
-        <v>0.3805537669027689</v>
-      </c>
-      <c r="AY23">
-        <v>0.1763578274760383</v>
-      </c>
-      <c r="AZ23">
-        <v>0.07217529647804354</v>
+        <v>0.1352260544896678</v>
       </c>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:47">
       <c r="A24" s="1">
         <v>2913</v>
       </c>
@@ -4236,25 +3876,10 @@
         <v>0.07229394240317749</v>
       </c>
       <c r="AU24">
-        <v>0.2599403578528827</v>
-      </c>
-      <c r="AV24">
-        <v>0.2780352177942539</v>
-      </c>
-      <c r="AW24">
-        <v>0.3657718120805369</v>
-      </c>
-      <c r="AX24">
-        <v>0.4050225370251127</v>
-      </c>
-      <c r="AY24">
-        <v>0.194888178913738</v>
-      </c>
-      <c r="AZ24">
-        <v>0.07277447374821798</v>
+        <v>0.1441721193301545</v>
       </c>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:47">
       <c r="A25" s="1">
         <v>2914</v>
       </c>
@@ -4391,25 +4016,10 @@
         <v>0.07288977159880811</v>
       </c>
       <c r="AU25">
-        <v>0.2688866799204772</v>
-      </c>
-      <c r="AV25">
-        <v>0.2863762743280815</v>
-      </c>
-      <c r="AW25">
-        <v>0.3832214765100671</v>
-      </c>
-      <c r="AX25">
-        <v>0.4333547971667741</v>
-      </c>
-      <c r="AY25">
-        <v>0.2127795527156549</v>
-      </c>
-      <c r="AZ25">
-        <v>0.07360873318655714</v>
+        <v>0.153007282540387</v>
       </c>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:47">
       <c r="A26" s="1">
         <v>2915</v>
       </c>
@@ -4546,25 +4156,10 @@
         <v>0.07368421052631595</v>
       </c>
       <c r="AU26">
-        <v>0.2753479125248509</v>
-      </c>
-      <c r="AV26">
-        <v>0.2863762743280815</v>
-      </c>
-      <c r="AW26">
-        <v>0.4114093959731543</v>
-      </c>
-      <c r="AX26">
-        <v>0.4681262073406311</v>
-      </c>
-      <c r="AY26">
-        <v>0.2357827476038338</v>
-      </c>
-      <c r="AZ26">
-        <v>0.07465441633859778</v>
+        <v>0.1643931832464604</v>
       </c>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:47">
       <c r="A27" s="1">
         <v>2916</v>
       </c>
@@ -4701,25 +4296,10 @@
         <v>0.07467725918569992</v>
       </c>
       <c r="AU27">
-        <v>0.2803180914512923</v>
-      </c>
-      <c r="AV27">
-        <v>0.2947173308619092</v>
-      </c>
-      <c r="AW27">
-        <v>0.4496644295302014</v>
-      </c>
-      <c r="AX27">
-        <v>0.5003219575016098</v>
-      </c>
-      <c r="AY27">
-        <v>0.2645367412140575</v>
-      </c>
-      <c r="AZ27">
-        <v>0.07593517967153394</v>
+        <v>0.1786255591290522</v>
       </c>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:47">
       <c r="A28" s="1">
         <v>2917</v>
       </c>
@@ -4856,25 +4436,10 @@
         <v>0.07586891757696114</v>
       </c>
       <c r="AU28">
-        <v>0.2897614314115308</v>
-      </c>
-      <c r="AV28">
-        <v>0.3030583873957368</v>
-      </c>
-      <c r="AW28">
-        <v>0.463758389261745</v>
-      </c>
-      <c r="AX28">
-        <v>0.5151320025756601</v>
-      </c>
-      <c r="AY28">
-        <v>0.2932907348242811</v>
-      </c>
-      <c r="AZ28">
-        <v>0.07745102583505695</v>
+        <v>0.193042771062068</v>
       </c>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:47">
       <c r="A29" s="1">
         <v>2918</v>
       </c>
@@ -5011,25 +4576,10 @@
         <v>0.07725918570009904</v>
       </c>
       <c r="AU29">
-        <v>0.2982107355864811</v>
-      </c>
-      <c r="AV29">
-        <v>0.3113994439295644</v>
-      </c>
-      <c r="AW29">
-        <v>0.4785234899328858</v>
-      </c>
-      <c r="AX29">
-        <v>0.527366387636832</v>
-      </c>
-      <c r="AY29">
-        <v>0.318849840255591</v>
-      </c>
-      <c r="AZ29">
-        <v>0.07920195350431974</v>
+        <v>0.2061661306421207</v>
       </c>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:47">
       <c r="A30" s="1">
         <v>2919</v>
       </c>
@@ -5166,25 +4716,10 @@
         <v>0.07884806355511419</v>
       </c>
       <c r="AU30">
-        <v>0.3006958250497018</v>
-      </c>
-      <c r="AV30">
-        <v>0.314179796107507</v>
-      </c>
-      <c r="AW30">
-        <v>0.497986577181208</v>
-      </c>
-      <c r="AX30">
-        <v>0.5421764327108822</v>
-      </c>
-      <c r="AY30">
-        <v>0.3322683706070287</v>
-      </c>
-      <c r="AZ30">
-        <v>0.08118796135447694</v>
+        <v>0.2138553103397287</v>
       </c>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:47">
       <c r="A31" s="1">
         <v>2920</v>
       </c>
@@ -5321,25 +4856,10 @@
         <v>0.08063555114200602</v>
       </c>
       <c r="AU31">
-        <v>0.3031809145129225</v>
-      </c>
-      <c r="AV31">
-        <v>0.314179796107507</v>
-      </c>
-      <c r="AW31">
-        <v>0.5093959731543624</v>
-      </c>
-      <c r="AX31">
-        <v>0.5499034127495172</v>
-      </c>
-      <c r="AY31">
-        <v>0.339297124600639</v>
-      </c>
-      <c r="AZ31">
-        <v>0.08351440850187698</v>
+        <v>0.2187719492809875</v>
       </c>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:47">
       <c r="A32" s="1">
         <v>2921</v>
       </c>
@@ -5476,25 +4996,10 @@
         <v>0.08282025819265119</v>
       </c>
       <c r="AU32">
-        <v>0.3041749502982107</v>
-      </c>
-      <c r="AV32">
-        <v>0.314179796107507</v>
-      </c>
-      <c r="AW32">
-        <v>0.512751677852349</v>
-      </c>
-      <c r="AX32">
-        <v>0.5524790727623954</v>
-      </c>
-      <c r="AY32">
-        <v>0.3450479233226837</v>
-      </c>
-      <c r="AZ32">
-        <v>0.08620566219410226</v>
+        <v>0.223466784961739</v>
       </c>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:47">
       <c r="A33" s="1">
         <v>2922</v>
       </c>
@@ -5631,25 +5136,10 @@
         <v>0.08520357497517364</v>
       </c>
       <c r="AU33">
-        <v>0.3041749502982107</v>
-      </c>
-      <c r="AV33">
-        <v>0.314179796107507</v>
-      </c>
-      <c r="AW33">
-        <v>0.5201342281879194</v>
-      </c>
-      <c r="AX33">
-        <v>0.5524790727623954</v>
-      </c>
-      <c r="AY33">
-        <v>0.3476038338658146</v>
-      </c>
-      <c r="AZ33">
-        <v>0.08918215146074007</v>
+        <v>0.2268677682895275</v>
       </c>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34" spans="1:47">
       <c r="A34" s="1">
         <v>2923</v>
       </c>
@@ -5786,25 +5276,10 @@
         <v>0.08798411122145</v>
       </c>
       <c r="AU34">
-        <v>0.3041749502982107</v>
-      </c>
-      <c r="AV34">
-        <v>0.314179796107507</v>
-      </c>
-      <c r="AW34">
-        <v>0.5335570469798657</v>
-      </c>
-      <c r="AX34">
-        <v>0.5621377978106891</v>
-      </c>
-      <c r="AY34">
-        <v>0.3520766773162939</v>
-      </c>
-      <c r="AZ34">
-        <v>0.09257360134087132</v>
+        <v>0.2315256367601936</v>
       </c>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:47">
       <c r="A35" s="1">
         <v>2924</v>
       </c>
@@ -5941,25 +5416,10 @@
         <v>0.09116186693147972</v>
       </c>
       <c r="AU35">
-        <v>0.3041749502982107</v>
-      </c>
-      <c r="AV35">
-        <v>0.3169601482854495</v>
-      </c>
-      <c r="AW35">
-        <v>0.5416107382550336</v>
-      </c>
-      <c r="AX35">
-        <v>0.5679330328396652</v>
-      </c>
-      <c r="AY35">
-        <v>0.3546325878594249</v>
-      </c>
-      <c r="AZ35">
-        <v>0.09638001315934648</v>
+        <v>0.2356659642896754</v>
       </c>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36" spans="1:47">
       <c r="A36" s="1">
         <v>2925</v>
       </c>
@@ -6096,25 +5556,10 @@
         <v>0.09473684210526281</v>
       </c>
       <c r="AU36">
-        <v>0.3041749502982107</v>
-      </c>
-      <c r="AV36">
-        <v>0.3225208526413346</v>
-      </c>
-      <c r="AW36">
-        <v>0.5496644295302013</v>
-      </c>
-      <c r="AX36">
-        <v>0.5730843528654218</v>
-      </c>
-      <c r="AY36">
-        <v>0.3539936102236422</v>
-      </c>
-      <c r="AZ36">
-        <v>0.1005461838557568</v>
+        <v>0.2386972755166168</v>
       </c>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37" spans="1:47">
       <c r="A37" s="1">
         <v>2926</v>
       </c>
@@ -6251,25 +5696,10 @@
         <v>0.09870903674280039</v>
       </c>
       <c r="AU37">
-        <v>0.3041749502982107</v>
-      </c>
-      <c r="AV37">
-        <v>0.3280815569972196</v>
-      </c>
-      <c r="AW37">
-        <v>0.5657718120805368</v>
-      </c>
-      <c r="AX37">
-        <v>0.5853187379265937</v>
-      </c>
-      <c r="AY37">
-        <v>0.3527156549520767</v>
-      </c>
-      <c r="AZ37">
-        <v>0.1049667563010201</v>
+        <v>0.241802521163728</v>
       </c>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38" spans="1:47">
       <c r="A38" s="1">
         <v>2927</v>
       </c>
@@ -6406,25 +5836,10 @@
         <v>0.1028798411122146</v>
       </c>
       <c r="AU38">
-        <v>0.3101391650099404</v>
-      </c>
-      <c r="AV38">
-        <v>0.3308619091751622</v>
-      </c>
-      <c r="AW38">
-        <v>0.57248322147651</v>
-      </c>
-      <c r="AX38">
-        <v>0.5917578879587895</v>
-      </c>
-      <c r="AY38">
-        <v>0.349520766773163</v>
-      </c>
-      <c r="AZ38">
-        <v>0.109575962442703</v>
+        <v>0.2440205537688074</v>
       </c>
     </row>
-    <row r="39" spans="1:52">
+    <row r="39" spans="1:47">
       <c r="A39" s="1">
         <v>2928</v>
       </c>
@@ -6561,25 +5976,10 @@
         <v>0.1074478649453823</v>
       </c>
       <c r="AU39">
-        <v>0.3170974155069582</v>
-      </c>
-      <c r="AV39">
-        <v>0.3336422613531047</v>
-      </c>
-      <c r="AW39">
-        <v>0.5791946308724832</v>
-      </c>
-      <c r="AX39">
-        <v>0.5943335479716678</v>
-      </c>
-      <c r="AY39">
-        <v>0.3456869009584665</v>
-      </c>
-      <c r="AZ39">
-        <v>0.1145449267998967</v>
+        <v>0.2463125207940556</v>
       </c>
     </row>
-    <row r="40" spans="1:52">
+    <row r="40" spans="1:47">
       <c r="A40" s="1">
         <v>2929</v>
       </c>
@@ -6716,25 +6116,10 @@
         <v>0.1124131082423038</v>
       </c>
       <c r="AU40">
-        <v>0.3190854870775348</v>
-      </c>
-      <c r="AV40">
-        <v>0.3336422613531047</v>
-      </c>
-      <c r="AW40">
-        <v>0.5738255033557047</v>
-      </c>
-      <c r="AX40">
-        <v>0.5975531229877656</v>
-      </c>
-      <c r="AY40">
-        <v>0.3399361022364217</v>
-      </c>
-      <c r="AZ40">
-        <v>0.119832249230171</v>
+        <v>0.2479021108276959</v>
       </c>
     </row>
-    <row r="41" spans="1:52">
+    <row r="41" spans="1:47">
       <c r="A41" s="1">
         <v>2930</v>
       </c>
@@ -6871,25 +6256,10 @@
         <v>0.1177755710029793</v>
       </c>
       <c r="AU41">
-        <v>0.3210735586481114</v>
-      </c>
-      <c r="AV41">
-        <v>0.3336422613531047</v>
-      </c>
-      <c r="AW41">
-        <v>0.5738255033557047</v>
-      </c>
-      <c r="AX41">
-        <v>0.6007726980038636</v>
-      </c>
-      <c r="AY41">
-        <v>0.334185303514377</v>
-      </c>
-      <c r="AZ41">
-        <v>0.1253325726044457</v>
+        <v>0.2496765369117595</v>
       </c>
     </row>
-    <row r="42" spans="1:52">
+    <row r="42" spans="1:47">
       <c r="A42" s="1">
         <v>2931</v>
       </c>
@@ -7026,25 +6396,10 @@
         <v>0.1231380337636542</v>
       </c>
       <c r="AU42">
-        <v>0.3220675944333996</v>
-      </c>
-      <c r="AV42">
-        <v>0.3364226135310472</v>
-      </c>
-      <c r="AW42">
-        <v>0.5718120805369127</v>
-      </c>
-      <c r="AX42">
-        <v>0.6007726980038636</v>
-      </c>
-      <c r="AY42">
-        <v>0.3277955271565495</v>
-      </c>
-      <c r="AZ42">
-        <v>0.1309884071764718</v>
+        <v>0.2511552253151452</v>
       </c>
     </row>
-    <row r="43" spans="1:52">
+    <row r="43" spans="1:47">
       <c r="A43" s="1">
         <v>2932</v>
       </c>
@@ -7181,25 +6536,10 @@
         <v>0.1288977159880831</v>
       </c>
       <c r="AU43">
-        <v>0.323558648111332</v>
-      </c>
-      <c r="AV43">
-        <v>0.3364226135310472</v>
-      </c>
-      <c r="AW43">
-        <v>0.5624161073825503</v>
-      </c>
-      <c r="AX43">
-        <v>0.601416613007083</v>
-      </c>
-      <c r="AY43">
-        <v>0.3214057507987221</v>
-      </c>
-      <c r="AZ43">
-        <v>0.1369073974235942</v>
+        <v>0.2528187497689548</v>
       </c>
     </row>
-    <row r="44" spans="1:52">
+    <row r="44" spans="1:47">
       <c r="A44" s="1">
         <v>2933</v>
       </c>
@@ -7336,25 +6676,10 @@
         <v>0.1348560079443891</v>
       </c>
       <c r="AU44">
-        <v>0.3245526838966203</v>
-      </c>
-      <c r="AV44">
-        <v>0.3364226135310472</v>
-      </c>
-      <c r="AW44">
-        <v>0.548993288590604</v>
-      </c>
-      <c r="AX44">
-        <v>0.5975531229877656</v>
-      </c>
-      <c r="AY44">
-        <v>0.3143769968051119</v>
-      </c>
-      <c r="AZ44">
-        <v>0.1429510657053324</v>
+        <v>0.2543713725925106</v>
       </c>
     </row>
-    <row r="45" spans="1:52">
+    <row r="45" spans="1:47">
       <c r="A45" s="1">
         <v>2934</v>
       </c>
@@ -7491,25 +6816,10 @@
         <v>0.1408142999006952</v>
       </c>
       <c r="AU45">
-        <v>0.3245526838966203</v>
-      </c>
-      <c r="AV45">
-        <v>0.3392029657089898</v>
-      </c>
-      <c r="AW45">
-        <v>0.5429530201342282</v>
-      </c>
-      <c r="AX45">
-        <v>0.5872504829362525</v>
-      </c>
-      <c r="AY45">
-        <v>0.3073482428115016</v>
-      </c>
-      <c r="AZ45">
-        <v>0.1490950434492597</v>
+        <v>0.2559239954160664</v>
       </c>
     </row>
-    <row r="46" spans="1:52">
+    <row r="46" spans="1:47">
       <c r="A46" s="1">
         <v>2935</v>
       </c>
@@ -7646,25 +6956,10 @@
         <v>0.146971201588878</v>
       </c>
       <c r="AU46">
-        <v>0.3250497017892645</v>
-      </c>
-      <c r="AV46">
-        <v>0.3419833178869323</v>
-      </c>
-      <c r="AW46">
-        <v>0.5315436241610738</v>
-      </c>
-      <c r="AX46">
-        <v>0.5711526078557632</v>
-      </c>
-      <c r="AY46">
-        <v>0.3003194888178913</v>
-      </c>
-      <c r="AZ46">
-        <v>0.1553873563574184</v>
+        <v>0.2576614542900452</v>
       </c>
     </row>
-    <row r="47" spans="1:52">
+    <row r="47" spans="1:47">
       <c r="A47" s="1">
         <v>2936</v>
       </c>
@@ -7801,25 +7096,10 @@
         <v>0.1533267130089374</v>
       </c>
       <c r="AU47">
-        <v>0.3250497017892645</v>
-      </c>
-      <c r="AV47">
-        <v>0.3419833178869323</v>
-      </c>
-      <c r="AW47">
-        <v>0.525503355704698</v>
-      </c>
-      <c r="AX47">
-        <v>0.5434642627173213</v>
-      </c>
-      <c r="AY47">
-        <v>0.2932907348242811</v>
-      </c>
-      <c r="AZ47">
-        <v>0.1617491449022096</v>
+        <v>0.2595837492144472</v>
       </c>
     </row>
-    <row r="48" spans="1:52">
+    <row r="48" spans="1:47">
       <c r="A48" s="1">
         <v>2937</v>
       </c>
@@ -7956,25 +7236,10 @@
         <v>0.1596822244289969</v>
       </c>
       <c r="AU48">
-        <v>0.3250497017892645</v>
-      </c>
-      <c r="AV48">
-        <v>0.3419833178869323</v>
-      </c>
-      <c r="AW48">
-        <v>0.5201342281879194</v>
-      </c>
-      <c r="AX48">
-        <v>0.5106245975531229</v>
-      </c>
-      <c r="AY48">
-        <v>0.2862619808306709</v>
-      </c>
-      <c r="AZ48">
-        <v>0.1680881434297173</v>
+        <v>0.2613212080884261</v>
       </c>
     </row>
-    <row r="49" spans="1:52">
+    <row r="49" spans="1:47">
       <c r="A49" s="1">
         <v>2938</v>
       </c>
@@ -8111,25 +7376,10 @@
         <v>0.1662363455809336</v>
       </c>
       <c r="AU49">
-        <v>0.3250497017892645</v>
-      </c>
-      <c r="AV49">
-        <v>0.3419833178869323</v>
-      </c>
-      <c r="AW49">
-        <v>0.5046979865771811</v>
-      </c>
-      <c r="AX49">
-        <v>0.480360592401803</v>
-      </c>
-      <c r="AY49">
-        <v>0.2798722044728434</v>
-      </c>
-      <c r="AZ49">
-        <v>0.1745016645983232</v>
+        <v>0.263539240693505</v>
       </c>
     </row>
-    <row r="50" spans="1:52">
+    <row r="50" spans="1:47">
       <c r="A50" s="1">
         <v>2939</v>
       </c>
@@ -8266,25 +7516,10 @@
         <v>0.1727904667328697</v>
       </c>
       <c r="AU50">
-        <v>0.3250497017892645</v>
-      </c>
-      <c r="AV50">
-        <v>0.3419833178869323</v>
-      </c>
-      <c r="AW50">
-        <v>0.4973154362416107</v>
-      </c>
-      <c r="AX50">
-        <v>0.463618802318094</v>
-      </c>
-      <c r="AY50">
-        <v>0.2747603833865815</v>
-      </c>
-      <c r="AZ50">
-        <v>0.180947596822784</v>
+        <v>0.2661639126095157</v>
       </c>
     </row>
-    <row r="51" spans="1:52">
+    <row r="51" spans="1:47">
       <c r="A51" s="1">
         <v>2940</v>
       </c>
@@ -8421,25 +7656,10 @@
         <v>0.1795431976166831</v>
       </c>
       <c r="AU51">
-        <v>0.3250497017892645</v>
-      </c>
-      <c r="AV51">
-        <v>0.3405931417979611</v>
-      </c>
-      <c r="AW51">
-        <v>0.4906040268456375</v>
-      </c>
-      <c r="AX51">
-        <v>0.4584674822923375</v>
-      </c>
-      <c r="AY51">
-        <v>0.2696485623003195</v>
-      </c>
-      <c r="AZ51">
-        <v>0.1873714484855059</v>
+        <v>0.2687885845255255</v>
       </c>
     </row>
-    <row r="52" spans="1:52">
+    <row r="52" spans="1:47">
       <c r="A52" s="1">
         <v>2941</v>
       </c>
@@ -8576,25 +7796,10 @@
         <v>0.1860973187686198</v>
       </c>
       <c r="AU52">
-        <v>0.3250497017892645</v>
-      </c>
-      <c r="AV52">
-        <v>0.3345690454124189</v>
-      </c>
-      <c r="AW52">
-        <v>0.4738255033557047</v>
-      </c>
-      <c r="AX52">
-        <v>0.4533161622665808</v>
-      </c>
-      <c r="AY52">
-        <v>0.2651757188498403</v>
-      </c>
-      <c r="AZ52">
-        <v>0.193610374036005</v>
+        <v>0.2715241580717908</v>
       </c>
     </row>
-    <row r="53" spans="1:52">
+    <row r="53" spans="1:47">
       <c r="A53" s="1">
         <v>2942</v>
       </c>
@@ -8731,25 +7936,10 @@
         <v>0.1926514399205559</v>
       </c>
       <c r="AU53">
-        <v>0.3250497017892645</v>
-      </c>
-      <c r="AV53">
-        <v>0.3243744207599629</v>
-      </c>
-      <c r="AW53">
-        <v>0.4496644295302014</v>
-      </c>
-      <c r="AX53">
-        <v>0.4436574372182872</v>
-      </c>
-      <c r="AY53">
-        <v>0.2594249201277955</v>
-      </c>
-      <c r="AZ53">
-        <v>0.1997526957212415</v>
+        <v>0.2734834202062774</v>
       </c>
     </row>
-    <row r="54" spans="1:52">
+    <row r="54" spans="1:47">
       <c r="A54" s="1">
         <v>2943</v>
       </c>
@@ -8886,25 +8076,10 @@
         <v>0.1990069513406154</v>
       </c>
       <c r="AU54">
-        <v>0.3250497017892645</v>
-      </c>
-      <c r="AV54">
-        <v>0.3021316033364226</v>
-      </c>
-      <c r="AW54">
-        <v>0.4348993288590604</v>
-      </c>
-      <c r="AX54">
-        <v>0.4320669671603348</v>
-      </c>
-      <c r="AY54">
-        <v>0.2549520766773163</v>
-      </c>
-      <c r="AZ54">
-        <v>0.2058066938346713</v>
+        <v>0.276034157702118</v>
       </c>
     </row>
-    <row r="55" spans="1:52">
+    <row r="55" spans="1:47">
       <c r="A55" s="1">
         <v>2944</v>
       </c>
@@ -9041,25 +8216,10 @@
         <v>0.2051638530287981</v>
       </c>
       <c r="AU55">
-        <v>0.3250497017892645</v>
-      </c>
-      <c r="AV55">
-        <v>0.2636700648748841</v>
-      </c>
-      <c r="AW55">
-        <v>0.3973154362416108</v>
-      </c>
-      <c r="AX55">
-        <v>0.4140373470701868</v>
-      </c>
-      <c r="AY55">
-        <v>0.2511182108626198</v>
-      </c>
-      <c r="AZ55">
-        <v>0.2116757658358794</v>
+        <v>0.2786957968282132</v>
       </c>
     </row>
-    <row r="56" spans="1:52">
+    <row r="56" spans="1:47">
       <c r="A56" s="1">
         <v>2945</v>
       </c>
@@ -9196,25 +8356,10 @@
         <v>0.2111221449851042</v>
       </c>
       <c r="AU56">
-        <v>0.3250497017892645</v>
-      </c>
-      <c r="AV56">
-        <v>0.2418906394810009</v>
-      </c>
-      <c r="AW56">
-        <v>0.3812080536912752</v>
-      </c>
-      <c r="AX56">
-        <v>0.3915003219575016</v>
-      </c>
-      <c r="AY56">
-        <v>0.2479233226837061</v>
-      </c>
-      <c r="AZ56">
-        <v>0.2173886165213694</v>
+        <v>0.2814683375845624</v>
       </c>
     </row>
-    <row r="57" spans="1:52">
+    <row r="57" spans="1:47">
       <c r="A57" s="1">
         <v>2946</v>
       </c>
@@ -9351,25 +8496,10 @@
         <v>0.2168818272095331</v>
       </c>
       <c r="AU57">
-        <v>0.3250497017892645</v>
-      </c>
-      <c r="AV57">
-        <v>0.2344763670064875</v>
-      </c>
-      <c r="AW57">
-        <v>0.3671140939597315</v>
-      </c>
-      <c r="AX57">
-        <v>0.3599484867997425</v>
-      </c>
-      <c r="AY57">
-        <v>0.2434504792332268</v>
-      </c>
-      <c r="AZ57">
-        <v>0.2229717421677739</v>
+        <v>0.2834645669291336</v>
       </c>
     </row>
-    <row r="58" spans="1:52">
+    <row r="58" spans="1:47">
       <c r="A58" s="1">
         <v>2947</v>
       </c>
@@ -9506,25 +8636,10 @@
         <v>0.2226415094339624</v>
       </c>
       <c r="AU58">
-        <v>0.3250497017892645</v>
-      </c>
-      <c r="AV58">
-        <v>0.2289156626506024</v>
-      </c>
-      <c r="AW58">
-        <v>0.3624161073825503</v>
-      </c>
-      <c r="AX58">
-        <v>0.3354797166773986</v>
-      </c>
-      <c r="AY58">
-        <v>0.2389776357827476</v>
-      </c>
-      <c r="AZ58">
-        <v>0.2284179674040001</v>
+        <v>0.2854607962737048</v>
       </c>
     </row>
-    <row r="59" spans="1:52">
+    <row r="59" spans="1:47">
       <c r="A59" s="1">
         <v>2948</v>
       </c>
@@ -9661,25 +8776,10 @@
         <v>0.228202581926514</v>
       </c>
       <c r="AU59">
-        <v>0.3250497017892645</v>
-      </c>
-      <c r="AV59">
-        <v>0.2196478220574606</v>
-      </c>
-      <c r="AW59">
-        <v>0.3469798657718121</v>
-      </c>
-      <c r="AX59">
-        <v>0.316806181584031</v>
-      </c>
-      <c r="AY59">
-        <v>0.2345047923322685</v>
-      </c>
-      <c r="AZ59">
-        <v>0.2336843128700448</v>
+        <v>0.2872721895678538</v>
       </c>
     </row>
-    <row r="60" spans="1:52">
+    <row r="60" spans="1:47">
       <c r="A60" s="1">
         <v>2949</v>
       </c>
@@ -9816,25 +8916,10 @@
         <v>0.2335650446871895</v>
       </c>
       <c r="AU60">
-        <v>0.3250497017892645</v>
-      </c>
-      <c r="AV60">
-        <v>0.2117701575532901</v>
-      </c>
-      <c r="AW60">
-        <v>0.3375838926174496</v>
-      </c>
-      <c r="AX60">
-        <v>0.3026400515132003</v>
-      </c>
-      <c r="AY60">
-        <v>0.2306709265175719</v>
-      </c>
-      <c r="AZ60">
-        <v>0.2386890792288706</v>
+        <v>0.2891944844922558</v>
       </c>
     </row>
-    <row r="61" spans="1:52">
+    <row r="61" spans="1:47">
       <c r="A61" s="1">
         <v>2950</v>
       </c>
@@ -9971,25 +9056,10 @@
         <v>0.2385302879841111</v>
       </c>
       <c r="AU61">
-        <v>0.3250497017892645</v>
-      </c>
-      <c r="AV61">
-        <v>0.1978683966635774</v>
-      </c>
-      <c r="AW61">
-        <v>0.3328859060402685</v>
-      </c>
-      <c r="AX61">
-        <v>0.2897617514488088</v>
-      </c>
-      <c r="AY61">
-        <v>0.2261980830670927</v>
-      </c>
-      <c r="AZ61">
-        <v>0.243425643570557</v>
+        <v>0.2906362056855568</v>
       </c>
     </row>
-    <row r="62" spans="1:52">
+    <row r="62" spans="1:47">
       <c r="A62" s="1">
         <v>2951</v>
       </c>
@@ -10126,25 +9196,10 @@
         <v>0.2434955312810326</v>
       </c>
       <c r="AU62">
-        <v>0.3250497017892645</v>
-      </c>
-      <c r="AV62">
-        <v>0.17516218721038</v>
-      </c>
-      <c r="AW62">
-        <v>0.3221476510067114</v>
-      </c>
-      <c r="AX62">
-        <v>0.2807469414037347</v>
-      </c>
-      <c r="AY62">
-        <v>0.2217252396166134</v>
-      </c>
-      <c r="AZ62">
-        <v>0.2480419469173662</v>
+        <v>0.2918930908284348</v>
       </c>
     </row>
-    <row r="63" spans="1:52">
+    <row r="63" spans="1:47">
       <c r="A63" s="1">
         <v>2952</v>
       </c>
@@ -10281,25 +9336,10 @@
         <v>0.2482621648460775</v>
       </c>
       <c r="AU63">
-        <v>0.3220675944333996</v>
-      </c>
-      <c r="AV63">
-        <v>0.1570898980537535</v>
-      </c>
-      <c r="AW63">
-        <v>0.3</v>
-      </c>
-      <c r="AX63">
-        <v>0.2717321313586606</v>
-      </c>
-      <c r="AY63">
-        <v>0.2185303514376997</v>
-      </c>
-      <c r="AZ63">
-        <v>0.2524783711564207</v>
+        <v>0.2935566152822444</v>
       </c>
     </row>
-    <row r="64" spans="1:52">
+    <row r="64" spans="1:47">
       <c r="A64" s="1">
         <v>2953</v>
       </c>
@@ -10436,25 +9476,10 @@
         <v>0.2528301886792451</v>
       </c>
       <c r="AU64">
-        <v>0.2952286282306163</v>
-      </c>
-      <c r="AV64">
-        <v>0.1510658016682113</v>
-      </c>
-      <c r="AW64">
-        <v>0.2523489932885906</v>
-      </c>
-      <c r="AX64">
-        <v>0.2569220862846104</v>
-      </c>
-      <c r="AY64">
-        <v>0.2146964856230032</v>
-      </c>
-      <c r="AZ64">
-        <v>0.2567261616990549</v>
+        <v>0.2949244020553771</v>
       </c>
     </row>
-    <row r="65" spans="1:52">
+    <row r="65" spans="1:47">
       <c r="A65" s="1">
         <v>2954</v>
       </c>
@@ -10591,25 +9616,10 @@
         <v>0.2571996027805361</v>
       </c>
       <c r="AU65">
-        <v>0.2803180914512923</v>
-      </c>
-      <c r="AV65">
-        <v>0.144578313253012</v>
-      </c>
-      <c r="AW65">
-        <v>0.2281879194630872</v>
-      </c>
-      <c r="AX65">
-        <v>0.2401802962009015</v>
-      </c>
-      <c r="AY65">
-        <v>0.2108626198083067</v>
-      </c>
-      <c r="AZ65">
-        <v>0.2607763287962712</v>
+        <v>0.2959225167276627</v>
       </c>
     </row>
-    <row r="66" spans="1:52">
+    <row r="66" spans="1:47">
       <c r="A66" s="1">
         <v>2955</v>
       </c>
@@ -10746,25 +9756,10 @@
         <v>0.2613704071499503</v>
       </c>
       <c r="AU66">
-        <v>0.2743538767395626</v>
-      </c>
-      <c r="AV66">
-        <v>0.1343836886005561</v>
-      </c>
-      <c r="AW66">
-        <v>0.2087248322147651</v>
-      </c>
-      <c r="AX66">
-        <v>0.2086284610431423</v>
-      </c>
-      <c r="AY66">
-        <v>0.207667731629393</v>
-      </c>
-      <c r="AZ66">
-        <v>0.2646643597985488</v>
+        <v>0.2972163690806253</v>
       </c>
     </row>
-    <row r="67" spans="1:52">
+    <row r="67" spans="1:47">
       <c r="A67" s="1">
         <v>2956</v>
       </c>
@@ -10901,25 +9896,10 @@
         <v>0.2651439920556106</v>
       </c>
       <c r="AU67">
-        <v>0.268389662027833</v>
-      </c>
-      <c r="AV67">
-        <v>0.1246524559777572</v>
-      </c>
-      <c r="AW67">
-        <v>0.1912751677852349</v>
-      </c>
-      <c r="AX67">
-        <v>0.1719253058596265</v>
-      </c>
-      <c r="AY67">
-        <v>0.2044728434504792</v>
-      </c>
-      <c r="AZ67">
-        <v>0.2682979890519723</v>
+        <v>0.2981405493327416</v>
       </c>
     </row>
-    <row r="68" spans="1:52">
+    <row r="68" spans="1:47">
       <c r="A68" s="1">
         <v>2957</v>
       </c>
@@ -11056,25 +10036,10 @@
         <v>0.268917576961271</v>
       </c>
       <c r="AU68">
-        <v>0.268389662027833</v>
-      </c>
-      <c r="AV68">
-        <v>0.123725671918443</v>
-      </c>
-      <c r="AW68">
-        <v>0.1718120805369127</v>
-      </c>
-      <c r="AX68">
-        <v>0.1313586606567933</v>
-      </c>
-      <c r="AY68">
-        <v>0.2012779552715655</v>
-      </c>
-      <c r="AZ68">
-        <v>0.2717761071076442</v>
+        <v>0.299064729584858</v>
       </c>
     </row>
-    <row r="69" spans="1:52">
+    <row r="69" spans="1:47">
       <c r="A69" s="1">
         <v>2958</v>
       </c>
@@ -11211,25 +10176,10 @@
         <v>0.2722939424031779</v>
       </c>
       <c r="AU69">
-        <v>0.2654075546719682</v>
-      </c>
-      <c r="AV69">
-        <v>0.1195551436515292</v>
-      </c>
-      <c r="AW69">
-        <v>0.161744966442953</v>
-      </c>
-      <c r="AX69">
-        <v>0.1107533805537669</v>
-      </c>
-      <c r="AY69">
-        <v>0.197444089456869</v>
-      </c>
-      <c r="AZ69">
-        <v>0.2750913789504102</v>
+        <v>0.2995083361058744</v>
       </c>
     </row>
-    <row r="70" spans="1:52">
+    <row r="70" spans="1:47">
       <c r="A70" s="1">
         <v>2959</v>
       </c>
@@ -11366,25 +10316,10 @@
         <v>0.2756703078450843</v>
       </c>
       <c r="AU70">
-        <v>0.2654075546719682</v>
-      </c>
-      <c r="AV70">
-        <v>0.113531047265987</v>
-      </c>
-      <c r="AW70">
-        <v>0.1463087248322148</v>
-      </c>
-      <c r="AX70">
-        <v>0.09272376046361881</v>
-      </c>
-      <c r="AY70">
-        <v>0.1942492012779553</v>
-      </c>
-      <c r="AZ70">
-        <v>0.278251138933001</v>
+        <v>0.3002476803075676</v>
       </c>
     </row>
-    <row r="71" spans="1:52">
+    <row r="71" spans="1:47">
       <c r="A71" s="1">
         <v>2960</v>
       </c>
@@ -11521,25 +10456,10 @@
         <v>0.2786494538232374</v>
       </c>
       <c r="AU71">
-        <v>0.2594433399602386</v>
-      </c>
-      <c r="AV71">
-        <v>0.113531047265987</v>
-      </c>
-      <c r="AW71">
-        <v>0.1375838926174497</v>
-      </c>
-      <c r="AX71">
-        <v>0.07791371538956859</v>
-      </c>
-      <c r="AY71">
-        <v>0.1916932907348243</v>
-      </c>
-      <c r="AZ71">
-        <v>0.2811978979715931</v>
+        <v>0.3010979261395139</v>
       </c>
     </row>
-    <row r="72" spans="1:52">
+    <row r="72" spans="1:47">
       <c r="A72" s="1">
         <v>2961</v>
       </c>
@@ -11676,25 +10596,10 @@
         <v>0.2816285998013904</v>
       </c>
       <c r="AU72">
-        <v>0.2027833001988072</v>
-      </c>
-      <c r="AV72">
-        <v>0.1005560704355885</v>
-      </c>
-      <c r="AW72">
-        <v>0.1342281879194631</v>
-      </c>
-      <c r="AX72">
-        <v>0.06052801030264005</v>
-      </c>
-      <c r="AY72">
-        <v>0.1891373801916933</v>
-      </c>
-      <c r="AZ72">
-        <v>0.2841998594081685</v>
+        <v>0.301948171971461</v>
       </c>
     </row>
-    <row r="73" spans="1:52">
+    <row r="73" spans="1:47">
       <c r="A73" s="1">
         <v>2962</v>
       </c>
@@ -11831,25 +10736,10 @@
         <v>0.2846077457795429</v>
       </c>
       <c r="AU73">
-        <v>0.1341948310139165</v>
-      </c>
-      <c r="AV73">
-        <v>0.08943466172381834</v>
-      </c>
-      <c r="AW73">
-        <v>0.1302013422818792</v>
-      </c>
-      <c r="AX73">
-        <v>0.05280103026400515</v>
-      </c>
-      <c r="AY73">
-        <v>0.1859424920127796</v>
-      </c>
-      <c r="AZ73">
-        <v>0.2872068678492118</v>
+        <v>0.3025026801227312</v>
       </c>
     </row>
-    <row r="74" spans="1:52">
+    <row r="74" spans="1:47">
       <c r="A74" s="1">
         <v>2963</v>
       </c>
@@ -11986,25 +10876,10 @@
         <v>0.287586891757696</v>
       </c>
       <c r="AU74">
-        <v>0.1192842942345925</v>
-      </c>
-      <c r="AV74">
-        <v>0.08711770157553289</v>
-      </c>
-      <c r="AW74">
-        <v>0.1067114093959732</v>
-      </c>
-      <c r="AX74">
-        <v>0.05022537025112685</v>
-      </c>
-      <c r="AY74">
-        <v>0.1833865814696486</v>
-      </c>
-      <c r="AZ74">
-        <v>0.2900848613691377</v>
+        <v>0.3033529259546783</v>
       </c>
     </row>
-    <row r="75" spans="1:52">
+    <row r="75" spans="1:47">
       <c r="A75" s="1">
         <v>2964</v>
       </c>
@@ -12141,25 +11016,10 @@
         <v>0.2903674280039723</v>
       </c>
       <c r="AU75">
-        <v>0.1163021868787276</v>
-      </c>
-      <c r="AV75">
-        <v>0.08109360518999073</v>
-      </c>
-      <c r="AW75">
-        <v>0.08859060402684564</v>
-      </c>
-      <c r="AX75">
-        <v>0.0489375402446877</v>
-      </c>
-      <c r="AY75">
-        <v>0.1808306709265176</v>
-      </c>
-      <c r="AZ75">
-        <v>0.2928066329109221</v>
+        <v>0.3040183357362023</v>
       </c>
     </row>
-    <row r="76" spans="1:52">
+    <row r="76" spans="1:47">
       <c r="A76" s="1">
         <v>2965</v>
       </c>
@@ -12296,25 +11156,10 @@
         <v>0.2931479642502481</v>
       </c>
       <c r="AU76">
-        <v>0.110337972166998</v>
-      </c>
-      <c r="AV76">
-        <v>0.07414272474513438</v>
-      </c>
-      <c r="AW76">
-        <v>0.07785234899328858</v>
-      </c>
-      <c r="AX76">
-        <v>0.04700579523502898</v>
-      </c>
-      <c r="AY76">
-        <v>0.1776357827476039</v>
-      </c>
-      <c r="AZ76">
-        <v>0.2954545919295744</v>
+        <v>0.3043880078370486</v>
       </c>
     </row>
-    <row r="77" spans="1:52">
+    <row r="77" spans="1:47">
       <c r="A77" s="1">
         <v>2966</v>
       </c>
@@ -12451,25 +11296,10 @@
         <v>0.2957298907646472</v>
       </c>
       <c r="AU77">
-        <v>0.1073558648111332</v>
-      </c>
-      <c r="AV77">
-        <v>0.06626506024096385</v>
-      </c>
-      <c r="AW77">
-        <v>0.06778523489932885</v>
-      </c>
-      <c r="AX77">
-        <v>0.04056664520283323</v>
-      </c>
-      <c r="AY77">
-        <v>0.1763578274760383</v>
-      </c>
-      <c r="AZ77">
-        <v>0.2980694304368278</v>
+        <v>0.3056448929799274</v>
       </c>
     </row>
-    <row r="78" spans="1:52">
+    <row r="78" spans="1:47">
       <c r="A78" s="1">
         <v>2967</v>
       </c>
@@ -12606,25 +11436,10 @@
         <v>0.2983118172790463</v>
       </c>
       <c r="AU78">
-        <v>0.1043737574552684</v>
-      </c>
-      <c r="AV78">
-        <v>0.06209453197405004</v>
-      </c>
-      <c r="AW78">
-        <v>0.05503355704697986</v>
-      </c>
-      <c r="AX78">
-        <v>0.0334835801674179</v>
-      </c>
-      <c r="AY78">
-        <v>0.1738019169329073</v>
-      </c>
-      <c r="AZ78">
-        <v>0.3006104544336805</v>
+        <v>0.3063103027614505</v>
       </c>
     </row>
-    <row r="79" spans="1:52">
+    <row r="79" spans="1:47">
       <c r="A79" s="1">
         <v>2968</v>
       </c>
@@ -12761,25 +11576,10 @@
         <v>0.3006951340615688</v>
       </c>
       <c r="AU79">
-        <v>0.1013916500994036</v>
-      </c>
-      <c r="AV79">
-        <v>0.05746061167747915</v>
-      </c>
-      <c r="AW79">
-        <v>0.0348993288590604</v>
-      </c>
-      <c r="AX79">
-        <v>0.0231809401159047</v>
-      </c>
-      <c r="AY79">
-        <v>0.1706070287539937</v>
-      </c>
-      <c r="AZ79">
-        <v>0.3030769571142797</v>
+        <v>0.3064951388118736</v>
       </c>
     </row>
-    <row r="80" spans="1:52">
+    <row r="80" spans="1:47">
       <c r="A80" s="1">
         <v>2969</v>
       </c>
@@ -12916,25 +11716,10 @@
         <v>0.3030784508440912</v>
       </c>
       <c r="AU80">
-        <v>0.09244532803180915</v>
-      </c>
-      <c r="AV80">
-        <v>0.05236329935125116</v>
-      </c>
-      <c r="AW80">
-        <v>0.02751677852348993</v>
-      </c>
-      <c r="AX80">
-        <v>0.01609787508048938</v>
-      </c>
-      <c r="AY80">
-        <v>0.1686900958466454</v>
-      </c>
-      <c r="AZ80">
-        <v>0.3054933044013609</v>
+        <v>0.3072714502236515</v>
       </c>
     </row>
-    <row r="81" spans="1:52">
+    <row r="81" spans="1:47">
       <c r="A81" s="1">
         <v>2970</v>
       </c>
@@ -13071,25 +11856,10 @@
         <v>0.3054617676266136</v>
       </c>
       <c r="AU81">
-        <v>0.09244532803180915</v>
-      </c>
-      <c r="AV81">
-        <v>0.05097312326227988</v>
-      </c>
-      <c r="AW81">
-        <v>0.02751677852348993</v>
-      </c>
-      <c r="AX81">
-        <v>0.01223438506117193</v>
-      </c>
-      <c r="AY81">
-        <v>0.1667731629392972</v>
-      </c>
-      <c r="AZ81">
-        <v>0.3078042952217854</v>
+        <v>0.3080477616354294</v>
       </c>
     </row>
-    <row r="82" spans="1:52">
+    <row r="82" spans="1:47">
       <c r="A82" s="1">
         <v>2971</v>
       </c>
@@ -13226,25 +11996,10 @@
         <v>0.3076464746772589</v>
       </c>
       <c r="AU82">
-        <v>0.08648111332007953</v>
-      </c>
-      <c r="AV82">
-        <v>0.04958294717330861</v>
-      </c>
-      <c r="AW82">
-        <v>0.02416107382550335</v>
-      </c>
-      <c r="AX82">
-        <v>0.008370895041854474</v>
-      </c>
-      <c r="AY82">
-        <v>0.1648562300319489</v>
-      </c>
-      <c r="AZ82">
-        <v>0.3100407627386885</v>
+        <v>0.3086392369967842</v>
       </c>
     </row>
-    <row r="83" spans="1:52">
+    <row r="83" spans="1:47">
       <c r="A83" s="1">
         <v>2972</v>
       </c>
@@ -13381,25 +12136,10 @@
         <v>0.3098311817279046</v>
       </c>
       <c r="AU83">
-        <v>0.06858846918489066</v>
-      </c>
-      <c r="AV83">
-        <v>0.0454124189063948</v>
-      </c>
-      <c r="AW83">
-        <v>0.02416107382550335</v>
-      </c>
-      <c r="AX83">
-        <v>0.007083065035415326</v>
-      </c>
-      <c r="AY83">
-        <v>0.1623003194888179</v>
-      </c>
-      <c r="AZ83">
-        <v>0.3122684769917733</v>
+        <v>0.3091198107278842</v>
       </c>
     </row>
-    <row r="84" spans="1:52">
+    <row r="84" spans="1:47">
       <c r="A84" s="1">
         <v>2973</v>
       </c>
@@ -13536,25 +12276,10 @@
         <v>0.3118172790466731</v>
       </c>
       <c r="AU84">
-        <v>0.05367793240556661</v>
-      </c>
-      <c r="AV84">
-        <v>0.03938832252085264</v>
-      </c>
-      <c r="AW84">
-        <v>0.02416107382550335</v>
-      </c>
-      <c r="AX84">
-        <v>0.005795235028976176</v>
-      </c>
-      <c r="AY84">
-        <v>0.1603833865814696</v>
-      </c>
-      <c r="AZ84">
-        <v>0.3142611097391172</v>
+        <v>0.309711286089239</v>
       </c>
     </row>
-    <row r="85" spans="1:52">
+    <row r="85" spans="1:47">
       <c r="A85" s="1">
         <v>2974</v>
       </c>
@@ -13691,25 +12416,10 @@
         <v>0.3138033763654416</v>
       </c>
       <c r="AU85">
-        <v>0.04771371769383698</v>
-      </c>
-      <c r="AV85">
-        <v>0.03382761816496756</v>
-      </c>
-      <c r="AW85">
-        <v>0.02013422818791946</v>
-      </c>
-      <c r="AX85">
-        <v>0.0051513200257566</v>
-      </c>
-      <c r="AY85">
-        <v>0.1578274760383387</v>
-      </c>
-      <c r="AZ85">
-        <v>0.3161196805608789</v>
+        <v>0.310007023769916</v>
       </c>
     </row>
-    <row r="86" spans="1:52">
+    <row r="86" spans="1:47">
       <c r="A86" s="1">
         <v>2975</v>
       </c>
@@ -13846,25 +12556,10 @@
         <v>0.3155908639523334</v>
       </c>
       <c r="AU86">
-        <v>0.04473161033797217</v>
-      </c>
-      <c r="AV86">
-        <v>0.03104726598702502</v>
-      </c>
-      <c r="AW86">
-        <v>0.01208053691275168</v>
-      </c>
-      <c r="AX86">
-        <v>0.01931745009658725</v>
-      </c>
-      <c r="AY86">
-        <v>0.1565495207667732</v>
-      </c>
-      <c r="AZ86">
-        <v>0.3177983722748829</v>
+        <v>0.3107094007615246</v>
       </c>
     </row>
-    <row r="87" spans="1:52">
+    <row r="87" spans="1:47">
       <c r="A87" s="1">
         <v>2976</v>
       </c>
@@ -14001,25 +12696,10 @@
         <v>0.3173783515392253</v>
       </c>
       <c r="AU87">
-        <v>0.04174950298210736</v>
-      </c>
-      <c r="AV87">
-        <v>0.02919369786839666</v>
-      </c>
-      <c r="AW87">
-        <v>0.008053691275167784</v>
-      </c>
-      <c r="AX87">
-        <v>0.01931745009658725</v>
-      </c>
-      <c r="AY87">
-        <v>0.1559105431309904</v>
-      </c>
-      <c r="AZ87">
-        <v>0.3194770639888882</v>
+        <v>0.3117075154338103</v>
       </c>
     </row>
-    <row r="88" spans="1:52">
+    <row r="88" spans="1:47">
       <c r="A88" s="1">
         <v>2977</v>
       </c>
@@ -14156,25 +12836,10 @@
         <v>0.3191658391261171</v>
       </c>
       <c r="AU88">
-        <v>0.02982107355864811</v>
-      </c>
-      <c r="AV88">
-        <v>0.03151065801668211</v>
-      </c>
-      <c r="AW88">
-        <v>0.006711409395973154</v>
-      </c>
-      <c r="AX88">
-        <v>0.02446877012234385</v>
-      </c>
-      <c r="AY88">
-        <v>0.154632587859425</v>
-      </c>
-      <c r="AZ88">
-        <v>0.3211292581014125</v>
+        <v>0.3124098924254189</v>
       </c>
     </row>
-    <row r="89" spans="1:52">
+    <row r="89" spans="1:47">
       <c r="A89" s="1">
         <v>2978</v>
       </c>
@@ -14311,25 +12976,10 @@
         <v>0.3209533267130089</v>
       </c>
       <c r="AU89">
-        <v>0.03777335984095428</v>
-      </c>
-      <c r="AV89">
-        <v>0.03429101019462465</v>
-      </c>
-      <c r="AW89">
-        <v>0.001342281879194631</v>
-      </c>
-      <c r="AX89">
-        <v>0.03477141017385706</v>
-      </c>
-      <c r="AY89">
-        <v>0.1520766773162939</v>
-      </c>
-      <c r="AZ89">
-        <v>0.3226611912190596</v>
+        <v>0.3123359580052488</v>
       </c>
     </row>
-    <row r="90" spans="1:52">
+    <row r="90" spans="1:47">
       <c r="A90" s="1">
         <v>2979</v>
       </c>
@@ -14466,25 +13116,10 @@
         <v>0.3225422045680235</v>
       </c>
       <c r="AU90">
-        <v>0.04870775347912525</v>
-      </c>
-      <c r="AV90">
-        <v>0.06024096385542169</v>
-      </c>
-      <c r="AW90">
-        <v>0.001342281879194631</v>
-      </c>
-      <c r="AX90">
-        <v>0.05602060528010303</v>
-      </c>
-      <c r="AY90">
-        <v>0.1514376996805112</v>
-      </c>
-      <c r="AZ90">
-        <v>0.324013245228953</v>
+        <v>0.3129644005766882</v>
       </c>
     </row>
-    <row r="91" spans="1:52">
+    <row r="91" spans="1:47">
       <c r="A91" s="1">
         <v>2980</v>
       </c>
@@ -14621,25 +13256,10 @@
         <v>0.3241310824230386</v>
       </c>
       <c r="AU91">
-        <v>0.05168986083499006</v>
-      </c>
-      <c r="AV91">
-        <v>0.06116774791473586</v>
-      </c>
-      <c r="AW91">
-        <v>0</v>
-      </c>
-      <c r="AX91">
-        <v>0.09658725048293626</v>
-      </c>
-      <c r="AY91">
-        <v>0.1507987220447285</v>
-      </c>
-      <c r="AZ91">
-        <v>0.3253917955154793</v>
+        <v>0.3135928431481276</v>
       </c>
     </row>
-    <row r="92" spans="1:52">
+    <row r="92" spans="1:47">
       <c r="A92" s="1">
         <v>2981</v>
       </c>
@@ -14776,25 +13396,10 @@
         <v>0.3257199602780538</v>
       </c>
       <c r="AU92">
-        <v>0.05715705765407555</v>
-      </c>
-      <c r="AV92">
-        <v>0.08989805375347544</v>
-      </c>
-      <c r="AW92">
-        <v>0</v>
-      </c>
-      <c r="AX92">
-        <v>0.1403734707018674</v>
-      </c>
-      <c r="AY92">
-        <v>0.1527156549520767</v>
-      </c>
-      <c r="AZ92">
-        <v>0.3267438488629483</v>
+        <v>0.3154042364422758</v>
       </c>
     </row>
-    <row r="93" spans="1:52">
+    <row r="93" spans="1:47">
       <c r="A93" s="1">
         <v>2982</v>
       </c>
@@ -14931,25 +13536,10 @@
         <v>0.3271102284011917</v>
       </c>
       <c r="AU93">
-        <v>0.0636182902584493</v>
-      </c>
-      <c r="AV93">
-        <v>0.1371640407784986</v>
-      </c>
-      <c r="AW93">
-        <v>0.002013422818791946</v>
-      </c>
-      <c r="AX93">
-        <v>0.1699935608499678</v>
-      </c>
-      <c r="AY93">
-        <v>0.1712460063897764</v>
-      </c>
-      <c r="AZ93">
-        <v>0.3281444810360616</v>
+        <v>0.3249048094340318</v>
       </c>
     </row>
-    <row r="94" spans="1:52">
+    <row r="94" spans="1:47">
       <c r="A94" s="1">
         <v>2983</v>
       </c>
@@ -15086,25 +13676,10 @@
         <v>0.3285004965243296</v>
       </c>
       <c r="AU94">
-        <v>0.06660039761431412</v>
-      </c>
-      <c r="AV94">
-        <v>0.1705282669138091</v>
-      </c>
-      <c r="AW94">
-        <v>0.002013422818791946</v>
-      </c>
-      <c r="AX94">
-        <v>0.2112041210560206</v>
-      </c>
-      <c r="AY94">
-        <v>0.1865814696485624</v>
-      </c>
-      <c r="AZ94">
-        <v>0.3295186156076946</v>
+        <v>0.3329266940224022</v>
       </c>
     </row>
-    <row r="95" spans="1:52">
+    <row r="95" spans="1:47">
       <c r="A95" s="1">
         <v>2984</v>
       </c>
@@ -15241,25 +13816,10 @@
         <v>0.3298907646474675</v>
       </c>
       <c r="AU95">
-        <v>0.06709741550695826</v>
-      </c>
-      <c r="AV95">
-        <v>0.1779425393883225</v>
-      </c>
-      <c r="AW95">
-        <v>0.002684563758389262</v>
-      </c>
-      <c r="AX95">
-        <v>0.236316806181584</v>
-      </c>
-      <c r="AY95">
-        <v>0.2172523961661342</v>
-      </c>
-      <c r="AZ95">
-        <v>0.3308138899893042</v>
+        <v>0.3480462829470258</v>
       </c>
     </row>
-    <row r="96" spans="1:52">
+    <row r="96" spans="1:47">
       <c r="A96" s="1">
         <v>2985</v>
       </c>
@@ -15396,25 +13956,10 @@
         <v>0.3310824230387287</v>
       </c>
       <c r="AU96">
-        <v>0.06858846918489066</v>
-      </c>
-      <c r="AV96">
-        <v>0.1779425393883225</v>
-      </c>
-      <c r="AW96">
-        <v>0.003355704697986577</v>
-      </c>
-      <c r="AX96">
-        <v>0.2382485511912428</v>
-      </c>
-      <c r="AY96">
-        <v>0.2536741214057508</v>
-      </c>
-      <c r="AZ96">
-        <v>0.3321135019198378</v>
+        <v>0.3656426749473214</v>
       </c>
     </row>
-    <row r="97" spans="1:52">
+    <row r="97" spans="1:47">
       <c r="A97" s="1">
         <v>2986</v>
       </c>
@@ -15551,25 +14096,10 @@
         <v>0.3324726911618666</v>
       </c>
       <c r="AU97">
-        <v>0.06858846918489066</v>
-      </c>
-      <c r="AV97">
-        <v>0.1774791473586654</v>
-      </c>
-      <c r="AW97">
-        <v>0.004026845637583892</v>
-      </c>
-      <c r="AX97">
-        <v>0.2395363811976819</v>
-      </c>
-      <c r="AY97">
-        <v>0.2690095846645368</v>
-      </c>
-      <c r="AZ97">
-        <v>0.3334926828335149</v>
+        <v>0.3736645595356918</v>
       </c>
     </row>
-    <row r="98" spans="1:52">
+    <row r="98" spans="1:47">
       <c r="A98" s="1">
         <v>2987</v>
       </c>
@@ -15706,25 +14236,10 @@
         <v>0.3336643495531278</v>
       </c>
       <c r="AU98">
-        <v>0.05666003976143141</v>
-      </c>
-      <c r="AV98">
-        <v>0.1770157553290083</v>
-      </c>
-      <c r="AW98">
-        <v>0.004026845637583892</v>
-      </c>
-      <c r="AX98">
-        <v>0.2395363811976819</v>
-      </c>
-      <c r="AY98">
-        <v>0.2747603833865815</v>
-      </c>
-      <c r="AZ98">
-        <v>0.3349176027633914</v>
+        <v>0.3772503789139035</v>
       </c>
     </row>
-    <row r="99" spans="1:52">
+    <row r="99" spans="1:47">
       <c r="A99" s="1">
         <v>2988</v>
       </c>
@@ -15861,25 +14376,10 @@
         <v>0.3350546176762663</v>
       </c>
       <c r="AU99">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV99">
-        <v>0.1770157553290083</v>
-      </c>
-      <c r="AW99">
-        <v>0.004026845637583892</v>
-      </c>
-      <c r="AX99">
-        <v>0.2395363811976819</v>
-      </c>
-      <c r="AY99">
-        <v>0.2798722044728434</v>
-      </c>
-      <c r="AZ99">
-        <v>0.3363519867374761</v>
+        <v>0.3805404606114373</v>
       </c>
     </row>
-    <row r="100" spans="1:52">
+    <row r="100" spans="1:47">
       <c r="A100" s="1">
         <v>2989</v>
       </c>
@@ -16016,25 +14516,10 @@
         <v>0.3362462760675275</v>
       </c>
       <c r="AU100">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV100">
-        <v>0.1765523632993512</v>
-      </c>
-      <c r="AW100">
-        <v>0.004026845637583892</v>
-      </c>
-      <c r="AX100">
-        <v>0.2395363811976819</v>
-      </c>
-      <c r="AY100">
-        <v>0.2843450479233227</v>
-      </c>
-      <c r="AZ100">
-        <v>0.3377532488753149</v>
+        <v>0.383534804628295</v>
       </c>
     </row>
-    <row r="101" spans="1:52">
+    <row r="101" spans="1:47">
       <c r="A101" s="1">
         <v>2990</v>
       </c>
@@ -16171,25 +14656,10 @@
         <v>0.3376365441906654</v>
       </c>
       <c r="AU101">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV101">
-        <v>0.175625579240037</v>
-      </c>
-      <c r="AW101">
-        <v>0.004026845637583892</v>
-      </c>
-      <c r="AX101">
-        <v>0.2395363811976819</v>
-      </c>
-      <c r="AY101">
-        <v>0.2830670926517572</v>
-      </c>
-      <c r="AZ101">
-        <v>0.3392605782602024</v>
+        <v>0.3840523455694796</v>
       </c>
     </row>
-    <row r="102" spans="1:52">
+    <row r="102" spans="1:47">
       <c r="A102" s="1">
         <v>2991</v>
       </c>
@@ -16326,25 +14796,10 @@
         <v>0.3390268123138033</v>
       </c>
       <c r="AU102">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV102">
-        <v>0.17516218721038</v>
-      </c>
-      <c r="AW102">
-        <v>0.004026845637583892</v>
-      </c>
-      <c r="AX102">
-        <v>0.2395363811976819</v>
-      </c>
-      <c r="AY102">
-        <v>0.2811501597444089</v>
-      </c>
-      <c r="AZ102">
-        <v>0.3408467671726872</v>
+        <v>0.3842741488299882</v>
       </c>
     </row>
-    <row r="103" spans="1:52">
+    <row r="103" spans="1:47">
       <c r="A103" s="1">
         <v>2992</v>
       </c>
@@ -16481,25 +14936,10 @@
         <v>0.3404170804369412</v>
       </c>
       <c r="AU103">
-        <v>0.04771371769383698</v>
-      </c>
-      <c r="AV103">
-        <v>0.17516218721038</v>
-      </c>
-      <c r="AW103">
-        <v>0.004026845637583892</v>
-      </c>
-      <c r="AX103">
-        <v>0.2395363811976819</v>
-      </c>
-      <c r="AY103">
-        <v>0.2805111821086262</v>
-      </c>
-      <c r="AZ103">
-        <v>0.342556056227069</v>
+        <v>0.3852722635022738</v>
       </c>
     </row>
-    <row r="104" spans="1:52">
+    <row r="104" spans="1:47">
       <c r="A104" s="1">
         <v>2993</v>
       </c>
@@ -16636,25 +15076,10 @@
         <v>0.3420059582919563</v>
       </c>
       <c r="AU104">
-        <v>0.04771371769383698</v>
-      </c>
-      <c r="AV104">
-        <v>0.1737720111214087</v>
-      </c>
-      <c r="AW104">
-        <v>0.004026845637583892</v>
-      </c>
-      <c r="AX104">
-        <v>0.2395363811976819</v>
-      </c>
-      <c r="AY104">
-        <v>0.2792332268370608</v>
-      </c>
-      <c r="AZ104">
-        <v>0.344377325982872</v>
+        <v>0.3859746404938816</v>
       </c>
     </row>
-    <row r="105" spans="1:52">
+    <row r="105" spans="1:47">
       <c r="A105" s="1">
         <v>2994</v>
       </c>
@@ -16791,25 +15216,10 @@
         <v>0.3437934458788481</v>
       </c>
       <c r="AU105">
-        <v>0.04920477137176939</v>
-      </c>
-      <c r="AV105">
-        <v>0.1733086190917516</v>
-      </c>
-      <c r="AW105">
-        <v>0.004026845637583892</v>
-      </c>
-      <c r="AX105">
-        <v>0.2395363811976819</v>
-      </c>
-      <c r="AY105">
-        <v>0.2811501597444089</v>
-      </c>
-      <c r="AZ105">
-        <v>0.3463548177168147</v>
+        <v>0.3883405419393</v>
       </c>
     </row>
-    <row r="106" spans="1:52">
+    <row r="106" spans="1:47">
       <c r="A106" s="1">
         <v>2995</v>
       </c>
@@ -16946,25 +15356,10 @@
         <v>0.3457795431976167</v>
       </c>
       <c r="AU106">
-        <v>0.05019880715705766</v>
-      </c>
-      <c r="AV106">
-        <v>0.1733086190917516</v>
-      </c>
-      <c r="AW106">
-        <v>0.004026845637583892</v>
-      </c>
-      <c r="AX106">
-        <v>0.2395363811976819</v>
-      </c>
-      <c r="AY106">
-        <v>0.2856230031948882</v>
-      </c>
-      <c r="AZ106">
-        <v>0.3484068320918574</v>
+        <v>0.39207423015785</v>
       </c>
     </row>
-    <row r="107" spans="1:52">
+    <row r="107" spans="1:47">
       <c r="A107" s="1">
         <v>2996</v>
       </c>
@@ -17101,25 +15496,10 @@
         <v>0.3477656405163851</v>
       </c>
       <c r="AU107">
-        <v>0.05019880715705766</v>
-      </c>
-      <c r="AV107">
-        <v>0.1733086190917516</v>
-      </c>
-      <c r="AW107">
-        <v>0.004026845637583892</v>
-      </c>
-      <c r="AX107">
-        <v>0.2395363811976819</v>
-      </c>
-      <c r="AY107">
-        <v>0.2881789137380191</v>
-      </c>
-      <c r="AZ107">
-        <v>0.350514048864885</v>
+        <v>0.3949207053343684</v>
       </c>
     </row>
-    <row r="108" spans="1:52">
+    <row r="108" spans="1:47">
       <c r="A108" s="1">
         <v>2997</v>
       </c>
@@ -17256,25 +15636,10 @@
         <v>0.3497517378351537</v>
       </c>
       <c r="AU108">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV108">
-        <v>0.1733086190917516</v>
-      </c>
-      <c r="AW108">
-        <v>0.004026845637583892</v>
-      </c>
-      <c r="AX108">
-        <v>0.2395363811976819</v>
-      </c>
-      <c r="AY108">
-        <v>0.2881789137380191</v>
-      </c>
-      <c r="AZ108">
-        <v>0.3527266214421464</v>
+        <v>0.396584229788178</v>
       </c>
     </row>
-    <row r="109" spans="1:52">
+    <row r="109" spans="1:47">
       <c r="A109" s="1">
         <v>2998</v>
       </c>
@@ -17411,25 +15776,10 @@
         <v>0.3519364448857994</v>
       </c>
       <c r="AU109">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV109">
-        <v>0.1733086190917516</v>
-      </c>
-      <c r="AW109">
-        <v>0.004026845637583892</v>
-      </c>
-      <c r="AX109">
-        <v>0.2395363811976819</v>
-      </c>
-      <c r="AY109">
-        <v>0.2849840255591055</v>
-      </c>
-      <c r="AZ109">
-        <v>0.3551190744520087</v>
+        <v>0.3969539018890242</v>
       </c>
     </row>
-    <row r="110" spans="1:52">
+    <row r="110" spans="1:47">
       <c r="A110" s="1">
         <v>2999</v>
       </c>
@@ -17566,25 +15916,10 @@
         <v>0.3543197616683219</v>
       </c>
       <c r="AU110">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV110">
-        <v>0.1733086190917516</v>
-      </c>
-      <c r="AW110">
-        <v>0.004026845637583892</v>
-      </c>
-      <c r="AX110">
-        <v>0.2395363811976819</v>
-      </c>
-      <c r="AY110">
-        <v>0.278594249201278</v>
-      </c>
-      <c r="AZ110">
-        <v>0.3576263473103126</v>
+        <v>0.3958448855864848</v>
       </c>
     </row>
-    <row r="111" spans="1:52">
+    <row r="111" spans="1:47">
       <c r="A111" s="1">
         <v>3000</v>
       </c>
@@ -17721,25 +16056,10 @@
         <v>0.3569016881827209</v>
       </c>
       <c r="AU111">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV111">
-        <v>0.1728452270620945</v>
-      </c>
-      <c r="AW111">
-        <v>0.004026845637583892</v>
-      </c>
-      <c r="AX111">
-        <v>0.2395363811976819</v>
-      </c>
-      <c r="AY111">
-        <v>0.270926517571885</v>
-      </c>
-      <c r="AZ111">
-        <v>0.3602081428097153</v>
+        <v>0.3943292299730136</v>
       </c>
     </row>
-    <row r="112" spans="1:52">
+    <row r="112" spans="1:47">
       <c r="A112" s="1">
         <v>3001</v>
       </c>
@@ -17876,25 +16196,10 @@
         <v>0.3592850049652434</v>
       </c>
       <c r="AU112">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV112">
-        <v>0.1723818350324374</v>
-      </c>
-      <c r="AW112">
-        <v>0.004026845637583892</v>
-      </c>
-      <c r="AX112">
-        <v>0.2395363811976819</v>
-      </c>
-      <c r="AY112">
-        <v>0.2626198083067093</v>
-      </c>
-      <c r="AZ112">
-        <v>0.3627804755897568</v>
+        <v>0.3925178366788655</v>
       </c>
     </row>
-    <row r="113" spans="1:52">
+    <row r="113" spans="1:47">
       <c r="A113" s="1">
         <v>3002</v>
       </c>
@@ -18031,25 +16336,10 @@
         <v>0.3618669314796425</v>
       </c>
       <c r="AU113">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV113">
-        <v>0.1723818350324374</v>
-      </c>
-      <c r="AW113">
-        <v>0.004026845637583892</v>
-      </c>
-      <c r="AX113">
-        <v>0.2395363811976819</v>
-      </c>
-      <c r="AY113">
-        <v>0.2555910543130991</v>
-      </c>
-      <c r="AZ113">
-        <v>0.3654912853478526</v>
+        <v>0.3912979187460722</v>
       </c>
     </row>
-    <row r="114" spans="1:52">
+    <row r="114" spans="1:47">
       <c r="A114" s="1">
         <v>3003</v>
       </c>
@@ -18186,25 +16476,10 @@
         <v>0.3644488579940416</v>
       </c>
       <c r="AU114">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV114">
-        <v>0.1723818350324374</v>
-      </c>
-      <c r="AW114">
-        <v>0.006040268456375839</v>
-      </c>
-      <c r="AX114">
-        <v>0.2395363811976819</v>
-      </c>
-      <c r="AY114">
-        <v>0.2479233226837061</v>
-      </c>
-      <c r="AZ114">
-        <v>0.3683488543647299</v>
+        <v>0.3899670991830241</v>
       </c>
     </row>
-    <row r="115" spans="1:52">
+    <row r="115" spans="1:47">
       <c r="A115" s="1">
         <v>3004</v>
       </c>
@@ -18341,25 +16616,10 @@
         <v>0.3672293942403174</v>
       </c>
       <c r="AU115">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV115">
-        <v>0.1723818350324374</v>
-      </c>
-      <c r="AW115">
-        <v>0.006040268456375839</v>
-      </c>
-      <c r="AX115">
-        <v>0.2395363811976819</v>
-      </c>
-      <c r="AY115">
-        <v>0.2415335463258786</v>
-      </c>
-      <c r="AZ115">
-        <v>0.3711606850278298</v>
+        <v>0.3892277549813317</v>
       </c>
     </row>
-    <row r="116" spans="1:52">
+    <row r="116" spans="1:47">
       <c r="A116" s="1">
         <v>3005</v>
       </c>
@@ -18496,25 +16756,10 @@
         <v>0.3700099304865933</v>
       </c>
       <c r="AU116">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV116">
-        <v>0.1709916589434662</v>
-      </c>
-      <c r="AW116">
-        <v>0.006711409395973154</v>
-      </c>
-      <c r="AX116">
-        <v>0.2388924661944624</v>
-      </c>
-      <c r="AY116">
-        <v>0.2357827476038338</v>
-      </c>
-      <c r="AZ116">
-        <v>0.3739409704225576</v>
+        <v>0.3887841484603154</v>
       </c>
     </row>
-    <row r="117" spans="1:52">
+    <row r="117" spans="1:47">
       <c r="A117" s="1">
         <v>3006</v>
       </c>
@@ -18651,25 +16896,10 @@
         <v>0.3727904667328701</v>
       </c>
       <c r="AU117">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV117">
-        <v>0.1691380908248378</v>
-      </c>
-      <c r="AW117">
-        <v>0.007382550335570469</v>
-      </c>
-      <c r="AX117">
-        <v>0.2388924661944624</v>
-      </c>
-      <c r="AY117">
-        <v>0.2313099041533547</v>
-      </c>
-      <c r="AZ117">
-        <v>0.3767714118732279</v>
+        <v>0.3889320173006539</v>
       </c>
     </row>
-    <row r="118" spans="1:52">
+    <row r="118" spans="1:47">
       <c r="A118" s="1">
         <v>3007</v>
       </c>
@@ -18806,25 +17036,10 @@
         <v>0.3757696127110227</v>
       </c>
       <c r="AU118">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV118">
-        <v>0.1686746987951807</v>
-      </c>
-      <c r="AW118">
-        <v>0.008053691275167784</v>
-      </c>
-      <c r="AX118">
-        <v>0.2376046361880232</v>
-      </c>
-      <c r="AY118">
-        <v>0.2255591054313099</v>
-      </c>
-      <c r="AZ118">
-        <v>0.3797552348301715</v>
+        <v>0.3886732468300615</v>
       </c>
     </row>
-    <row r="119" spans="1:52">
+    <row r="119" spans="1:47">
       <c r="A119" s="1">
         <v>3008</v>
       </c>
@@ -18961,25 +17176,10 @@
         <v>0.3787487586891762</v>
       </c>
       <c r="AU119">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV119">
-        <v>0.1672845227062094</v>
-      </c>
-      <c r="AW119">
-        <v>0.008053691275167784</v>
-      </c>
-      <c r="AX119">
-        <v>0.2369607211848036</v>
-      </c>
-      <c r="AY119">
-        <v>0.2210862619808307</v>
-      </c>
-      <c r="AZ119">
-        <v>0.3828207564617351</v>
+        <v>0.389005951720824</v>
       </c>
     </row>
-    <row r="120" spans="1:52">
+    <row r="120" spans="1:47">
       <c r="A120" s="1">
         <v>3009</v>
       </c>
@@ -19116,25 +17316,10 @@
         <v>0.3819265143992054</v>
       </c>
       <c r="AU120">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV120">
-        <v>0.1668211306765524</v>
-      </c>
-      <c r="AW120">
-        <v>0.008053691275167784</v>
-      </c>
-      <c r="AX120">
-        <v>0.2356728911783645</v>
-      </c>
-      <c r="AY120">
-        <v>0.2159744408945687</v>
-      </c>
-      <c r="AZ120">
-        <v>0.385864198193983</v>
+        <v>0.3890429189309078</v>
       </c>
     </row>
-    <row r="121" spans="1:52">
+    <row r="121" spans="1:47">
       <c r="A121" s="1">
         <v>3010</v>
       </c>
@@ -19271,25 +17456,10 @@
         <v>0.3849056603773579</v>
       </c>
       <c r="AU121">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV121">
-        <v>0.1668211306765524</v>
-      </c>
-      <c r="AW121">
-        <v>0.008053691275167784</v>
-      </c>
-      <c r="AX121">
-        <v>0.2356728911783645</v>
-      </c>
-      <c r="AY121">
-        <v>0.2115015974440894</v>
-      </c>
-      <c r="AZ121">
-        <v>0.3887779148871455</v>
+        <v>0.389190787771247</v>
       </c>
     </row>
-    <row r="122" spans="1:52">
+    <row r="122" spans="1:47">
       <c r="A122" s="1">
         <v>3011</v>
       </c>
@@ -19426,25 +17596,10 @@
         <v>0.3880834160873882</v>
       </c>
       <c r="AU122">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV122">
-        <v>0.1654309545875811</v>
-      </c>
-      <c r="AW122">
-        <v>0.008053691275167784</v>
-      </c>
-      <c r="AX122">
-        <v>0.2356728911783645</v>
-      </c>
-      <c r="AY122">
-        <v>0.207667731629393</v>
-      </c>
-      <c r="AZ122">
-        <v>0.3917749081476489</v>
+        <v>0.3896343942922625</v>
       </c>
     </row>
-    <row r="123" spans="1:52">
+    <row r="123" spans="1:47">
       <c r="A123" s="1">
         <v>3012</v>
       </c>
@@ -19581,25 +17736,10 @@
         <v>0.3912611717974185</v>
       </c>
       <c r="AU123">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV123">
-        <v>0.1645041705282669</v>
-      </c>
-      <c r="AW123">
-        <v>0.008053691275167784</v>
-      </c>
-      <c r="AX123">
-        <v>0.2356728911783645</v>
-      </c>
-      <c r="AY123">
-        <v>0.2038338658146964</v>
-      </c>
-      <c r="AZ123">
-        <v>0.3947868059363706</v>
+        <v>0.3902628368637019</v>
       </c>
     </row>
-    <row r="124" spans="1:52">
+    <row r="124" spans="1:47">
       <c r="A124" s="1">
         <v>3013</v>
       </c>
@@ -19736,25 +17876,10 @@
         <v>0.3942403177755709</v>
       </c>
       <c r="AU124">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV124">
-        <v>0.1635773864689527</v>
-      </c>
-      <c r="AW124">
-        <v>0.008053691275167784</v>
-      </c>
-      <c r="AX124">
-        <v>0.2356728911783645</v>
-      </c>
-      <c r="AY124">
-        <v>0.2</v>
-      </c>
-      <c r="AZ124">
-        <v>0.397750677360629</v>
+        <v>0.3907064433847174</v>
       </c>
     </row>
-    <row r="125" spans="1:52">
+    <row r="125" spans="1:47">
       <c r="A125" s="1">
         <v>3014</v>
       </c>
@@ -19891,25 +18016,10 @@
         <v>0.3972194637537234</v>
       </c>
       <c r="AU125">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV125">
-        <v>0.1631139944392956</v>
-      </c>
-      <c r="AW125">
-        <v>0.008053691275167784</v>
-      </c>
-      <c r="AX125">
-        <v>0.2356728911783645</v>
-      </c>
-      <c r="AY125">
-        <v>0.1955271565495208</v>
-      </c>
-      <c r="AZ125">
-        <v>0.4006328507726908</v>
+        <v>0.3908543122250558</v>
       </c>
     </row>
-    <row r="126" spans="1:52">
+    <row r="126" spans="1:47">
       <c r="A126" s="1">
         <v>3015</v>
       </c>
@@ -20046,25 +18156,10 @@
         <v>0.4000000000000004</v>
       </c>
       <c r="AU126">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV126">
-        <v>0.1626506024096386</v>
-      </c>
-      <c r="AW126">
-        <v>0.008053691275167784</v>
-      </c>
-      <c r="AX126">
-        <v>0.2356728911783645</v>
-      </c>
-      <c r="AY126">
-        <v>0.1916932907348243</v>
-      </c>
-      <c r="AZ126">
-        <v>0.4033064396180698</v>
+        <v>0.391113082695649</v>
       </c>
     </row>
-    <row r="127" spans="1:52">
+    <row r="127" spans="1:47">
       <c r="A127" s="1">
         <v>3016</v>
       </c>
@@ -20201,25 +18296,10 @@
         <v>0.4027805362462761</v>
       </c>
       <c r="AU127">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV127">
-        <v>0.1621872103799815</v>
-      </c>
-      <c r="AW127">
-        <v>0.008053691275167784</v>
-      </c>
-      <c r="AX127">
-        <v>0.2305215711526079</v>
-      </c>
-      <c r="AY127">
-        <v>0.1891373801916933</v>
-      </c>
-      <c r="AZ127">
-        <v>0.4059622841257858</v>
+        <v>0.3917784924771731</v>
       </c>
     </row>
-    <row r="128" spans="1:52">
+    <row r="128" spans="1:47">
       <c r="A128" s="1">
         <v>3017</v>
       </c>
@@ -20356,25 +18436,10 @@
         <v>0.4055610724925519</v>
       </c>
       <c r="AU128">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV128">
-        <v>0.1621872103799815</v>
-      </c>
-      <c r="AW128">
-        <v>0.008053691275167784</v>
-      </c>
-      <c r="AX128">
-        <v>0.2305215711526079</v>
-      </c>
-      <c r="AY128">
-        <v>0.1859424920127796</v>
-      </c>
-      <c r="AZ128">
-        <v>0.4086093760321077</v>
+        <v>0.3923330006284424</v>
       </c>
     </row>
-    <row r="129" spans="1:52">
+    <row r="129" spans="1:47">
       <c r="A129" s="1">
         <v>3018</v>
       </c>
@@ -20511,25 +18576,10 @@
         <v>0.4081429990069511</v>
       </c>
       <c r="AU129">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV129">
-        <v>0.1617238183503244</v>
-      </c>
-      <c r="AW129">
-        <v>0.008053691275167784</v>
-      </c>
-      <c r="AX129">
-        <v>0.2202189311010947</v>
-      </c>
-      <c r="AY129">
-        <v>0.1821086261980831</v>
-      </c>
-      <c r="AZ129">
-        <v>0.4111504006913831</v>
+        <v>0.3924069350486116</v>
       </c>
     </row>
-    <row r="130" spans="1:52">
+    <row r="130" spans="1:47">
       <c r="A130" s="1">
         <v>3019</v>
       </c>
@@ -20666,25 +18716,10 @@
         <v>0.4107249255213501</v>
       </c>
       <c r="AU130">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV130">
-        <v>0.1612604263206673</v>
-      </c>
-      <c r="AW130">
-        <v>0.007382550335570469</v>
-      </c>
-      <c r="AX130">
-        <v>0.2150676110753381</v>
-      </c>
-      <c r="AY130">
-        <v>0.1795527156549521</v>
-      </c>
-      <c r="AZ130">
-        <v>0.413586069546424</v>
+        <v>0.3930723448301356</v>
       </c>
     </row>
-    <row r="131" spans="1:52">
+    <row r="131" spans="1:47">
       <c r="A131" s="1">
         <v>3020</v>
       </c>
@@ -20821,25 +18856,10 @@
         <v>0.4131082423038726</v>
       </c>
       <c r="AU131">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV131">
-        <v>0.1612604263206673</v>
-      </c>
-      <c r="AW131">
-        <v>0.007382550335570469</v>
-      </c>
-      <c r="AX131">
-        <v>0.1976819059884095</v>
-      </c>
-      <c r="AY131">
-        <v>0.1769968051118211</v>
-      </c>
-      <c r="AZ131">
-        <v>0.4158131525099369</v>
+        <v>0.3935529185612366</v>
       </c>
     </row>
-    <row r="132" spans="1:52">
+    <row r="132" spans="1:47">
       <c r="A132" s="1">
         <v>3021</v>
       </c>
@@ -20976,25 +18996,10 @@
         <v>0.415491559086395</v>
       </c>
       <c r="AU132">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV132">
-        <v>0.1612604263206673</v>
-      </c>
-      <c r="AW132">
-        <v>0.007382550335570469</v>
-      </c>
-      <c r="AX132">
-        <v>0.1841596909207985</v>
-      </c>
-      <c r="AY132">
-        <v>0.1738019169329073</v>
-      </c>
-      <c r="AZ132">
-        <v>0.417934879006792</v>
+        <v>0.3937377546116588</v>
       </c>
     </row>
-    <row r="133" spans="1:52">
+    <row r="133" spans="1:47">
       <c r="A133" s="1">
         <v>3022</v>
       </c>
@@ -21131,25 +19136,10 @@
         <v>0.4176762661370408</v>
       </c>
       <c r="AU133">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV133">
-        <v>0.1612604263206673</v>
-      </c>
-      <c r="AW133">
-        <v>0.006711409395973154</v>
-      </c>
-      <c r="AX133">
-        <v>0.1577591757887959</v>
-      </c>
-      <c r="AY133">
-        <v>0.1712460063897764</v>
-      </c>
-      <c r="AZ133">
-        <v>0.4199820835249722</v>
+        <v>0.3940334922923366</v>
       </c>
     </row>
-    <row r="134" spans="1:52">
+    <row r="134" spans="1:47">
       <c r="A134" s="1">
         <v>3023</v>
       </c>
@@ -21286,25 +19276,10 @@
         <v>0.4198609731876866</v>
       </c>
       <c r="AU134">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV134">
-        <v>0.1612604263206673</v>
-      </c>
-      <c r="AW134">
-        <v>0.006040268456375839</v>
-      </c>
-      <c r="AX134">
-        <v>0.1229877656149388</v>
-      </c>
-      <c r="AY134">
-        <v>0.1686900958466454</v>
-      </c>
-      <c r="AZ134">
-        <v>0.4219475887061092</v>
+        <v>0.3943292299730145</v>
       </c>
     </row>
-    <row r="135" spans="1:52">
+    <row r="135" spans="1:47">
       <c r="A135" s="1">
         <v>3024</v>
       </c>
@@ -21441,25 +19416,10 @@
         <v>0.4218470705064545</v>
       </c>
       <c r="AU135">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV135">
-        <v>0.1612604263206673</v>
-      </c>
-      <c r="AW135">
-        <v>0.006040268456375839</v>
-      </c>
-      <c r="AX135">
-        <v>0.07018673535093368</v>
-      </c>
-      <c r="AY135">
-        <v>0.1667731629392972</v>
-      </c>
-      <c r="AZ135">
-        <v>0.4237332134546449</v>
+        <v>0.3947358692839453</v>
       </c>
     </row>
-    <row r="136" spans="1:52">
+    <row r="136" spans="1:47">
       <c r="A136" s="1">
         <v>3025</v>
       </c>
@@ -21596,25 +19556,10 @@
         <v>0.4238331678252236</v>
       </c>
       <c r="AU136">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV136">
-        <v>0.159870250231696</v>
-      </c>
-      <c r="AW136">
-        <v>0.005369127516778523</v>
-      </c>
-      <c r="AX136">
-        <v>0.02962009014810045</v>
-      </c>
-      <c r="AY136">
-        <v>0.1642172523961662</v>
-      </c>
-      <c r="AZ136">
-        <v>0.4253985772083034</v>
+        <v>0.3946619348637752</v>
       </c>
     </row>
-    <row r="137" spans="1:52">
+    <row r="137" spans="1:47">
       <c r="A137" s="1">
         <v>3026</v>
       </c>
@@ -21751,25 +19696,10 @@
         <v>0.4256206554121148</v>
       </c>
       <c r="AU137">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV137">
-        <v>0.1580166821130677</v>
-      </c>
-      <c r="AW137">
-        <v>0.005369127516778523</v>
-      </c>
-      <c r="AX137">
-        <v>0.003219575016097875</v>
-      </c>
-      <c r="AY137">
-        <v>0.1623003194888179</v>
-      </c>
-      <c r="AZ137">
-        <v>0.4269254633214848</v>
+        <v>0.3948837381242838</v>
       </c>
     </row>
-    <row r="138" spans="1:52">
+    <row r="138" spans="1:47">
       <c r="A138" s="1">
         <v>3027</v>
       </c>
@@ -21906,25 +19836,10 @@
         <v>0.4272095332671305</v>
       </c>
       <c r="AU138">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV138">
-        <v>0.1436515291936979</v>
-      </c>
-      <c r="AW138">
-        <v>0.005369127516778523</v>
-      </c>
-      <c r="AX138">
-        <v>0.00128783000643915</v>
-      </c>
-      <c r="AY138">
-        <v>0.1603833865814696</v>
-      </c>
-      <c r="AZ138">
-        <v>0.4284330291915519</v>
+        <v>0.3949207053343684</v>
       </c>
     </row>
-    <row r="139" spans="1:52">
+    <row r="139" spans="1:47">
       <c r="A139" s="1">
         <v>3028</v>
       </c>
@@ -22061,25 +19976,10 @@
         <v>0.4287984111221451</v>
       </c>
       <c r="AU139">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV139">
-        <v>0.1376274328081557</v>
-      </c>
-      <c r="AW139">
-        <v>0.005369127516778523</v>
-      </c>
-      <c r="AX139">
-        <v>0</v>
-      </c>
-      <c r="AY139">
-        <v>0.1578274760383387</v>
-      </c>
-      <c r="AZ139">
-        <v>0.4299140981225629</v>
+        <v>0.3946619348637752</v>
       </c>
     </row>
-    <row r="140" spans="1:52">
+    <row r="140" spans="1:47">
       <c r="A140" s="1">
         <v>3029</v>
       </c>
@@ -22216,25 +20116,10 @@
         <v>0.430188679245283</v>
       </c>
       <c r="AU140">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV140">
-        <v>0.1218721037998146</v>
-      </c>
-      <c r="AW140">
-        <v>0.005369127516778523</v>
-      </c>
-      <c r="AX140">
-        <v>0</v>
-      </c>
-      <c r="AY140">
-        <v>0.1559105431309904</v>
-      </c>
-      <c r="AZ140">
-        <v>0.4312831856897273</v>
+        <v>0.3946989020738598</v>
       </c>
     </row>
-    <row r="141" spans="1:52">
+    <row r="141" spans="1:47">
       <c r="A141" s="1">
         <v>3030</v>
       </c>
@@ -22371,25 +20256,10 @@
         <v>0.4315789473684209</v>
       </c>
       <c r="AU141">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV141">
-        <v>0.0917516218721038</v>
-      </c>
-      <c r="AW141">
-        <v>0.005369127516778523</v>
-      </c>
-      <c r="AX141">
-        <v>0</v>
-      </c>
-      <c r="AY141">
-        <v>0.1539936102236422</v>
-      </c>
-      <c r="AZ141">
-        <v>0.4326108717896163</v>
+        <v>0.3945510332335214</v>
       </c>
     </row>
-    <row r="142" spans="1:52">
+    <row r="142" spans="1:47">
       <c r="A142" s="1">
         <v>3031</v>
       </c>
@@ -22526,25 +20396,10 @@
         <v>0.4329692154915588</v>
       </c>
       <c r="AU142">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV142">
-        <v>0.06533827618164967</v>
-      </c>
-      <c r="AW142">
-        <v>0.005369127516778523</v>
-      </c>
-      <c r="AX142">
-        <v>0</v>
-      </c>
-      <c r="AY142">
-        <v>0.1520766773162939</v>
-      </c>
-      <c r="AZ142">
-        <v>0.4339298039632636</v>
+        <v>0.394588000443606</v>
       </c>
     </row>
-    <row r="143" spans="1:52">
+    <row r="143" spans="1:47">
       <c r="A143" s="1">
         <v>3032</v>
       </c>
@@ -22681,25 +20536,10 @@
         <v>0.43416087388282</v>
       </c>
       <c r="AU143">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV143">
-        <v>0.05468025949953661</v>
-      </c>
-      <c r="AW143">
-        <v>0.005369127516778523</v>
-      </c>
-      <c r="AX143">
-        <v>0</v>
-      </c>
-      <c r="AY143">
-        <v>0.1507987220447285</v>
-      </c>
-      <c r="AZ143">
-        <v>0.4351891186864555</v>
+        <v>0.3949207053343684</v>
       </c>
     </row>
-    <row r="144" spans="1:52">
+    <row r="144" spans="1:47">
       <c r="A144" s="1">
         <v>3033</v>
       </c>
@@ -22836,25 +20676,10 @@
         <v>0.4353525322740812</v>
       </c>
       <c r="AU144">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV144">
-        <v>0.05236329935125116</v>
-      </c>
-      <c r="AW144">
-        <v>0.005369127516778523</v>
-      </c>
-      <c r="AX144">
-        <v>0</v>
-      </c>
-      <c r="AY144">
-        <v>0.1495207667731629</v>
-      </c>
-      <c r="AZ144">
-        <v>0.4364622330155081</v>
+        <v>0.3950685741747069</v>
       </c>
     </row>
-    <row r="145" spans="1:52">
+    <row r="145" spans="1:47">
       <c r="A145" s="1">
         <v>3034</v>
       </c>
@@ -22991,25 +20816,10 @@
         <v>0.4365441906653424</v>
       </c>
       <c r="AU145">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV145">
-        <v>0.04726598702502317</v>
-      </c>
-      <c r="AW145">
-        <v>0.004026845637583892</v>
-      </c>
-      <c r="AX145">
-        <v>0</v>
-      </c>
-      <c r="AY145">
-        <v>0.1482428115015975</v>
-      </c>
-      <c r="AZ145">
-        <v>0.4377530910198019</v>
+        <v>0.3954012790654685</v>
       </c>
     </row>
-    <row r="146" spans="1:52">
+    <row r="146" spans="1:47">
       <c r="A146" s="1">
         <v>3035</v>
       </c>
@@ -23146,25 +20956,10 @@
         <v>0.4377358490566037</v>
       </c>
       <c r="AU146">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV146">
-        <v>0.04216867469879518</v>
-      </c>
-      <c r="AW146">
-        <v>0.004026845637583892</v>
-      </c>
-      <c r="AX146">
-        <v>0</v>
-      </c>
-      <c r="AY146">
-        <v>0.1463258785942492</v>
-      </c>
-      <c r="AZ146">
-        <v>0.4388971910901613</v>
+        <v>0.3952534102251308</v>
       </c>
     </row>
-    <row r="147" spans="1:52">
+    <row r="147" spans="1:47">
       <c r="A147" s="1">
         <v>3036</v>
       </c>
@@ -23301,25 +21096,10 @@
         <v>0.4389275074478649</v>
       </c>
       <c r="AU147">
-        <v>0.05069582504970179</v>
-      </c>
-      <c r="AV147">
-        <v>0.0366079703429101</v>
-      </c>
-      <c r="AW147">
-        <v>0.004026845637583892</v>
-      </c>
-      <c r="AX147">
-        <v>0</v>
-      </c>
-      <c r="AY147">
-        <v>0.1450479233226837</v>
-      </c>
-      <c r="AZ147">
-        <v>0.4399911364294248</v>
+        <v>0.3954012790654693</v>
       </c>
     </row>
-    <row r="148" spans="1:52">
+    <row r="148" spans="1:47">
       <c r="A148" s="1">
         <v>3037</v>
       </c>
@@ -23456,25 +21236,10 @@
         <v>0.4399205561072494</v>
       </c>
       <c r="AU148">
-        <v>0.04473161033797217</v>
-      </c>
-      <c r="AV148">
-        <v>0.02316960148285449</v>
-      </c>
-      <c r="AW148">
-        <v>0.004026845637583892</v>
-      </c>
-      <c r="AX148">
-        <v>0</v>
-      </c>
-      <c r="AY148">
-        <v>0.1437699680511182</v>
-      </c>
-      <c r="AZ148">
-        <v>0.4410519599324433</v>
+        <v>0.395549147905807</v>
       </c>
     </row>
-    <row r="149" spans="1:52">
+    <row r="149" spans="1:47">
       <c r="A149" s="1">
         <v>3038</v>
       </c>
@@ -23611,25 +21376,10 @@
         <v>0.4409136047666339</v>
       </c>
       <c r="AU149">
-        <v>0.02087475149105368</v>
-      </c>
-      <c r="AV149">
-        <v>0.008804448563484708</v>
-      </c>
-      <c r="AW149">
-        <v>0.004026845637583892</v>
-      </c>
-      <c r="AX149">
-        <v>0</v>
-      </c>
-      <c r="AY149">
-        <v>0.1424920127795528</v>
-      </c>
-      <c r="AZ149">
-        <v>0.4420626293667914</v>
+        <v>0.3956970167461463</v>
       </c>
     </row>
-    <row r="150" spans="1:52">
+    <row r="150" spans="1:47">
       <c r="A150" s="1">
         <v>3039</v>
       </c>
@@ -23766,25 +21516,10 @@
         <v>0.4417080436941407</v>
       </c>
       <c r="AU150">
-        <v>0.01491053677932406</v>
-      </c>
-      <c r="AV150">
-        <v>0.00139017608897127</v>
-      </c>
-      <c r="AW150">
-        <v>0.004026845637583892</v>
-      </c>
-      <c r="AX150">
-        <v>0</v>
-      </c>
-      <c r="AY150">
-        <v>0.1412140575079872</v>
-      </c>
-      <c r="AZ150">
-        <v>0.4429199159700185</v>
+        <v>0.3956600495360617</v>
       </c>
     </row>
-    <row r="151" spans="1:52">
+    <row r="151" spans="1:47">
       <c r="A151" s="1">
         <v>3040</v>
       </c>
@@ -23921,25 +21656,10 @@
         <v>0.4425024826216485</v>
       </c>
       <c r="AU151">
-        <v>0.01491053677932406</v>
-      </c>
-      <c r="AV151">
-        <v>0</v>
-      </c>
-      <c r="AW151">
-        <v>0.003355704697986577</v>
-      </c>
-      <c r="AX151">
-        <v>0</v>
-      </c>
-      <c r="AY151">
-        <v>0.1399361022364217</v>
-      </c>
-      <c r="AZ151">
-        <v>0.4437220001752606</v>
+        <v>0.3956230823259762</v>
       </c>
     </row>
-    <row r="152" spans="1:52">
+    <row r="152" spans="1:47">
       <c r="A152" s="1">
         <v>3041</v>
       </c>
@@ -24076,25 +21796,10 @@
         <v>0.4432969215491564</v>
       </c>
       <c r="AU152">
-        <v>0.01192842942345925</v>
-      </c>
-      <c r="AV152">
-        <v>0</v>
-      </c>
-      <c r="AW152">
-        <v>0.003355704697986577</v>
-      </c>
-      <c r="AX152">
-        <v>0</v>
-      </c>
-      <c r="AY152">
-        <v>0.1386581469648563</v>
-      </c>
-      <c r="AZ152">
-        <v>0.4444739289869836</v>
+        <v>0.3955861151158924</v>
       </c>
     </row>
-    <row r="153" spans="1:52">
+    <row r="153" spans="1:47">
       <c r="A153" s="1">
         <v>3042</v>
       </c>
@@ -24231,25 +21936,10 @@
         <v>0.4440913604766631</v>
       </c>
       <c r="AU153">
-        <v>0.002982107355864811</v>
-      </c>
-      <c r="AV153">
-        <v>0</v>
-      </c>
-      <c r="AW153">
-        <v>0.003355704697986577</v>
-      </c>
-      <c r="AX153">
-        <v>0</v>
-      </c>
-      <c r="AY153">
-        <v>0.1380191693290735</v>
-      </c>
-      <c r="AZ153">
-        <v>0.4452760138546467</v>
+        <v>0.3958448855864848</v>
       </c>
     </row>
-    <row r="154" spans="1:52">
+    <row r="154" spans="1:47">
       <c r="A154" s="1">
         <v>3043</v>
       </c>
@@ -24386,25 +22076,10 @@
         <v>0.4448857994041709</v>
       </c>
       <c r="AU154">
-        <v>0.002982107355864811</v>
-      </c>
-      <c r="AV154">
-        <v>0</v>
-      </c>
-      <c r="AW154">
-        <v>0.002684563758389262</v>
-      </c>
-      <c r="AX154">
-        <v>0</v>
-      </c>
-      <c r="AY154">
-        <v>0.136741214057508</v>
-      </c>
-      <c r="AZ154">
-        <v>0.4459876461214516</v>
+        <v>0.3959927544268232</v>
       </c>
     </row>
-    <row r="155" spans="1:52">
+    <row r="155" spans="1:47">
       <c r="A155" s="1">
         <v>3044</v>
       </c>
@@ -24541,25 +22216,10 @@
         <v>0.445481628599801</v>
       </c>
       <c r="AU155">
-        <v>0.002982107355864811</v>
-      </c>
-      <c r="AV155">
-        <v>0</v>
-      </c>
-      <c r="AW155">
-        <v>0.002013422818791946</v>
-      </c>
-      <c r="AX155">
-        <v>0</v>
-      </c>
-      <c r="AY155">
-        <v>0.1354632587859425</v>
-      </c>
-      <c r="AZ155">
-        <v>0.4466098512189379</v>
+        <v>0.3957709511663156</v>
       </c>
     </row>
-    <row r="156" spans="1:52">
+    <row r="156" spans="1:47">
       <c r="A156" s="1">
         <v>3045</v>
       </c>
@@ -24696,25 +22356,10 @@
         <v>0.4462760675273089</v>
       </c>
       <c r="AU156">
-        <v>0.002982107355864811</v>
-      </c>
-      <c r="AV156">
-        <v>0</v>
-      </c>
-      <c r="AW156">
-        <v>0.002013422818791946</v>
-      </c>
-      <c r="AX156">
-        <v>0</v>
-      </c>
-      <c r="AY156">
-        <v>0.1348242811501598</v>
-      </c>
-      <c r="AZ156">
-        <v>0.4472012218284425</v>
+        <v>0.3960297216369079</v>
       </c>
     </row>
-    <row r="157" spans="1:52">
+    <row r="157" spans="1:47">
       <c r="A157" s="1">
         <v>3046</v>
       </c>
@@ -24851,25 +22496,10 @@
         <v>0.4468718967229389</v>
       </c>
       <c r="AU157">
-        <v>0.002982107355864811</v>
-      </c>
-      <c r="AV157">
-        <v>0</v>
-      </c>
-      <c r="AW157">
-        <v>0.001342281879194631</v>
-      </c>
-      <c r="AX157">
-        <v>0</v>
-      </c>
-      <c r="AY157">
-        <v>0.1335463258785942</v>
-      </c>
-      <c r="AZ157">
-        <v>0.4476893650003454</v>
+        <v>0.3958079183764002</v>
       </c>
     </row>
-    <row r="158" spans="1:52">
+    <row r="158" spans="1:47">
       <c r="A158" s="1">
         <v>3047</v>
       </c>
@@ -25006,25 +22636,10 @@
         <v>0.4476663356504468</v>
       </c>
       <c r="AU158">
-        <v>0.002982107355864811</v>
-      </c>
-      <c r="AV158">
-        <v>0</v>
-      </c>
-      <c r="AW158">
-        <v>0.001342281879194631</v>
-      </c>
-      <c r="AX158">
-        <v>0</v>
-      </c>
-      <c r="AY158">
-        <v>0.1329073482428115</v>
-      </c>
-      <c r="AZ158">
-        <v>0.4481339770134936</v>
+        <v>0.3958818527965694</v>
       </c>
     </row>
-    <row r="159" spans="1:52">
+    <row r="159" spans="1:47">
       <c r="A159" s="1">
         <v>3048</v>
       </c>
@@ -25161,25 +22776,10 @@
         <v>0.4480635551142002</v>
       </c>
       <c r="AU159">
-        <v>0.002982107355864811</v>
-      </c>
-      <c r="AV159">
-        <v>0</v>
-      </c>
-      <c r="AW159">
-        <v>0.001342281879194631</v>
-      </c>
-      <c r="AX159">
-        <v>0</v>
-      </c>
-      <c r="AY159">
-        <v>0.131629392971246</v>
-      </c>
-      <c r="AZ159">
-        <v>0.448415743476158</v>
+        <v>0.3954752134856377</v>
       </c>
     </row>
-    <row r="160" spans="1:52">
+    <row r="160" spans="1:47">
       <c r="A160" s="1">
         <v>3049</v>
       </c>
@@ -25316,25 +22916,10 @@
         <v>0.4484607745779546</v>
       </c>
       <c r="AU160">
-        <v>0.002982107355864811</v>
-      </c>
-      <c r="AV160">
-        <v>0</v>
-      </c>
-      <c r="AW160">
-        <v>0.001342281879194631</v>
-      </c>
-      <c r="AX160">
-        <v>0</v>
-      </c>
-      <c r="AY160">
-        <v>0.1303514376996805</v>
-      </c>
-      <c r="AZ160">
-        <v>0.4486975099388246</v>
+        <v>0.3950685741747078</v>
       </c>
     </row>
-    <row r="161" spans="1:52">
+    <row r="161" spans="1:47">
       <c r="A161" s="1">
         <v>3050</v>
       </c>
@@ -25471,22 +23056,7 @@
         <v>0.448857994041708</v>
       </c>
       <c r="AU161">
-        <v>0.002982107355864811</v>
-      </c>
-      <c r="AV161">
-        <v>0</v>
-      </c>
-      <c r="AW161">
-        <v>0.001342281879194631</v>
-      </c>
-      <c r="AX161">
-        <v>0</v>
-      </c>
-      <c r="AY161">
-        <v>0.1297124600638978</v>
-      </c>
-      <c r="AZ161">
-        <v>0.4489142171421758</v>
+        <v>0.3947728364940299</v>
       </c>
     </row>
   </sheetData>
